--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-8234690766207901959" xfId="1" hidden="0"/>
-    <cellStyle name="-7005019869256399028" xfId="2" hidden="0"/>
+    <cellStyle name="3891993467521153842" xfId="1" hidden="0"/>
+    <cellStyle name="-7567501016553832005" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="3891993467521153842" xfId="1" hidden="0"/>
-    <cellStyle name="-7567501016553832005" xfId="2" hidden="0"/>
+    <cellStyle name="-7419263508323023828" xfId="1" hidden="0"/>
+    <cellStyle name="-4828143853717642063" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -472,7 +472,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS226"/>
+  <dimension ref="A1:AS228"/>
   <sheetViews>
     <sheetView rightToLeft="0" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -703,7 +703,7 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 44</t>
+          <t>Code 39</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
         <v>100</v>
       </c>
       <c r="AS2" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -864,7 +864,7 @@
         <v>-100</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="H3" s="2" t="n">
         <v>100</v>
@@ -1549,10 +1549,10 @@
         <v>-100</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>-100</v>
@@ -1582,7 +1582,7 @@
         <v>-100</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>100</v>
@@ -1597,7 +1597,7 @@
         <v>-100</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X8" s="2" t="n">
         <v>-100</v>
@@ -1686,10 +1686,10 @@
         <v>-100</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I9" s="2" t="n">
         <v>-100</v>
@@ -1719,7 +1719,7 @@
         <v>-100</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>100</v>
@@ -1734,7 +1734,7 @@
         <v>-100</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X9" s="2" t="n">
         <v>-100</v>
@@ -1981,13 +1981,13 @@
         <v>-100</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="2" t="n">
         <v>-100</v>
@@ -1996,19 +1996,19 @@
         <v>100</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="V11" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="X11" s="2" t="n">
         <v>-100</v>
@@ -2365,7 +2365,7 @@
         <v>-100</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>-100</v>
@@ -2443,7 +2443,7 @@
         <v>-100</v>
       </c>
       <c r="AE14" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AF14" s="2" t="n">
         <v>-100</v>
@@ -2458,7 +2458,7 @@
         <v>-100</v>
       </c>
       <c r="AJ14" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK14" s="2" t="n">
         <v>-100</v>
@@ -2502,7 +2502,7 @@
         <v>-100</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>-100</v>
@@ -2580,7 +2580,7 @@
         <v>-100</v>
       </c>
       <c r="AE15" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AF15" s="2" t="n">
         <v>-100</v>
@@ -2630,16 +2630,16 @@
         <v>100</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>-100</v>
@@ -2767,7 +2767,7 @@
         <v>100</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>100</v>
@@ -2776,16 +2776,16 @@
         <v>-100</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I17" s="2" t="n">
         <v>-100</v>
@@ -2815,7 +2815,7 @@
         <v>-100</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S17" s="2" t="n">
         <v>-100</v>
@@ -2827,13 +2827,13 @@
         <v>-100</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W17" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y17" s="2" t="n">
         <v>-100</v>
@@ -2872,7 +2872,7 @@
         <v>-100</v>
       </c>
       <c r="AK17" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL17" s="2" t="n">
         <v>-100</v>
@@ -2904,7 +2904,7 @@
         <v>100</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>100</v>
@@ -2919,10 +2919,10 @@
         <v>-100</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I18" s="2" t="n">
         <v>-100</v>
@@ -2940,37 +2940,37 @@
         <v>-100</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q18" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y18" s="2" t="n">
         <v>-100</v>
@@ -2991,7 +2991,7 @@
         <v>-100</v>
       </c>
       <c r="AE18" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AF18" s="2" t="n">
         <v>-100</v>
@@ -3006,10 +3006,10 @@
         <v>-100</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK18" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL18" s="2" t="n">
         <v>-100</v>
@@ -3041,7 +3041,7 @@
         <v>100</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>100</v>
@@ -3056,10 +3056,10 @@
         <v>-100</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>-100</v>
@@ -3077,31 +3077,31 @@
         <v>-100</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="Q19" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W19" s="2" t="n">
         <v>-100</v>
@@ -3128,7 +3128,7 @@
         <v>-100</v>
       </c>
       <c r="AE19" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AF19" s="2" t="n">
         <v>-100</v>
@@ -3178,10 +3178,10 @@
         <v>100</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D20" s="2" t="n">
         <v>-100</v>
@@ -3214,13 +3214,13 @@
         <v>-100</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="Q20" s="2" t="n">
         <v>-100</v>
@@ -3238,7 +3238,7 @@
         <v>-100</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="W20" s="2" t="n">
         <v>-100</v>
@@ -3315,7 +3315,7 @@
         <v>100</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>100</v>
@@ -3351,13 +3351,13 @@
         <v>-100</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q21" s="2" t="n">
         <v>-100</v>
@@ -3366,22 +3366,22 @@
         <v>100</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V21" s="2" t="n">
         <v>100</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="2" t="n">
         <v>-100</v>
@@ -3420,7 +3420,7 @@
         <v>-100</v>
       </c>
       <c r="AK21" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL21" s="2" t="n">
         <v>-100</v>
@@ -3467,10 +3467,10 @@
         <v>-100</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>-100</v>
@@ -3488,13 +3488,13 @@
         <v>-100</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="2" t="n">
         <v>-100</v>
@@ -3512,13 +3512,13 @@
         <v>100</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W22" s="2" t="n">
         <v>100</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y22" s="2" t="n">
         <v>-100</v>
@@ -3557,7 +3557,7 @@
         <v>-100</v>
       </c>
       <c r="AK22" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL22" s="2" t="n">
         <v>-100</v>
@@ -3595,7 +3595,7 @@
         <v>100</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E23" s="2" t="n">
         <v>100</v>
@@ -3604,10 +3604,10 @@
         <v>-100</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>-100</v>
@@ -3625,34 +3625,34 @@
         <v>-100</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>-100</v>
+        <v>105</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>-100</v>
+        <v>105</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>-100</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>-100</v>
+        <v>105</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>-100</v>
+        <v>105</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>-100</v>
+        <v>105</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="X23" s="2" t="n">
         <v>-100</v>
@@ -3762,13 +3762,13 @@
         <v>-100</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="Q24" s="2" t="n">
         <v>-100</v>
@@ -3786,10 +3786,10 @@
         <v>-100</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="X24" s="2" t="n">
         <v>-100</v>
@@ -3869,7 +3869,7 @@
         <v>100</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E25" s="2" t="n">
         <v>100</v>
@@ -3878,10 +3878,10 @@
         <v>-100</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>-100</v>
@@ -3899,13 +3899,13 @@
         <v>-100</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="Q25" s="2" t="n">
         <v>-100</v>
@@ -3914,19 +3914,19 @@
         <v>100</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="X25" s="2" t="n">
         <v>-100</v>
@@ -4000,13 +4000,13 @@
         <v>100</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>100</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E26" s="2" t="n">
         <v>100</v>
@@ -4051,19 +4051,19 @@
         <v>120</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="V26" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X26" s="2" t="n">
         <v>-100</v>
@@ -4137,13 +4137,13 @@
         <v>100</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>100</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E27" s="2" t="n">
         <v>100</v>
@@ -4152,10 +4152,10 @@
         <v>-100</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>-100</v>
@@ -4185,22 +4185,22 @@
         <v>-100</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>-100</v>
+        <v>150</v>
       </c>
       <c r="X27" s="2" t="n">
         <v>-100</v>
@@ -4280,7 +4280,7 @@
         <v>100</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E28" s="2" t="n">
         <v>100</v>
@@ -4289,10 +4289,10 @@
         <v>-100</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="I28" s="2" t="n">
         <v>-100</v>
@@ -4322,7 +4322,7 @@
         <v>-100</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="S28" s="2" t="n">
         <v>-100</v>
@@ -4337,7 +4337,7 @@
         <v>-100</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>-100</v>
+        <v>150</v>
       </c>
       <c r="X28" s="2" t="n">
         <v>-100</v>
@@ -4417,7 +4417,7 @@
         <v>100</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="n">
         <v>100</v>
@@ -4426,10 +4426,10 @@
         <v>-100</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>-100</v>
@@ -4459,16 +4459,16 @@
         <v>-100</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V29" s="2" t="n">
         <v>-100</v>
@@ -4554,7 +4554,7 @@
         <v>100</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E30" s="2" t="n">
         <v>100</v>
@@ -4563,10 +4563,10 @@
         <v>-100</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>-100</v>
@@ -4584,34 +4584,34 @@
         <v>-100</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q30" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X30" s="2" t="n">
         <v>-100</v>
@@ -4700,10 +4700,10 @@
         <v>-100</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>-100</v>
@@ -4721,34 +4721,34 @@
         <v>-100</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q31" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X31" s="2" t="n">
         <v>-100</v>
@@ -4828,7 +4828,7 @@
         <v>100</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E32" s="2" t="n">
         <v>100</v>
@@ -4837,55 +4837,55 @@
         <v>-100</v>
       </c>
       <c r="G32" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="I32" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J32" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K32" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L32" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="M32" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N32" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="O32" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="P32" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="Q32" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="R32" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="K32" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L32" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M32" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="O32" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="P32" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q32" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="R32" s="2" t="n">
-        <v>100</v>
-      </c>
       <c r="S32" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="X32" s="2" t="n">
         <v>-100</v>
@@ -4959,7 +4959,7 @@
         <v>100</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>100</v>
@@ -4974,10 +4974,10 @@
         <v>-100</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="I33" s="2" t="n">
         <v>-100</v>
@@ -5007,7 +5007,7 @@
         <v>-100</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="S33" s="2" t="n">
         <v>-100</v>
@@ -5016,10 +5016,10 @@
         <v>-100</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="2" t="n">
         <v>-100</v>
@@ -5096,7 +5096,7 @@
         <v>100</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>100</v>
@@ -5111,10 +5111,10 @@
         <v>-100</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>-100</v>
@@ -5153,10 +5153,10 @@
         <v>100</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W34" s="2" t="n">
         <v>100</v>
@@ -5233,7 +5233,7 @@
         <v>100</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>100</v>
@@ -5248,10 +5248,10 @@
         <v>-100</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I35" s="2" t="n">
         <v>-100</v>
@@ -5269,10 +5269,10 @@
         <v>-100</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>100</v>
@@ -5281,22 +5281,22 @@
         <v>-100</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X35" s="2" t="n">
         <v>-100</v>
@@ -5385,10 +5385,10 @@
         <v>-100</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>-100</v>
@@ -5406,34 +5406,34 @@
         <v>-100</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q36" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X36" s="2" t="n">
         <v>-100</v>
@@ -5522,7 +5522,7 @@
         <v>-100</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>-100</v>
@@ -5549,7 +5549,7 @@
         <v>-100</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q37" s="2" t="n">
         <v>-100</v>
@@ -5564,10 +5564,10 @@
         <v>-100</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W37" s="2" t="n">
         <v>-100</v>
@@ -5659,7 +5659,7 @@
         <v>-100</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="H38" s="2" t="n">
         <v>-100</v>
@@ -5680,25 +5680,25 @@
         <v>-100</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q38" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U38" s="2" t="n">
         <v>-100</v>
@@ -5707,7 +5707,7 @@
         <v>-100</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X38" s="2" t="n">
         <v>-100</v>
@@ -6371,7 +6371,7 @@
         <v>-100</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="2" t="n">
         <v>-100</v>
@@ -6645,7 +6645,7 @@
         <v>-100</v>
       </c>
       <c r="P45" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="2" t="n">
         <v>-100</v>
@@ -6782,7 +6782,7 @@
         <v>-100</v>
       </c>
       <c r="P46" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q46" s="2" t="n">
         <v>-100</v>
@@ -6916,13 +6916,13 @@
         <v>-100</v>
       </c>
       <c r="O47" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="P47" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="P47" s="2" t="n">
-        <v>100</v>
-      </c>
       <c r="Q47" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R47" s="2" t="n">
         <v>-100</v>
@@ -6943,10 +6943,10 @@
         <v>-100</v>
       </c>
       <c r="X47" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y47" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z47" s="2" t="n">
         <v>-100</v>
@@ -6970,7 +6970,7 @@
         <v>-100</v>
       </c>
       <c r="AG47" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AH47" s="2" t="n">
         <v>-100</v>
@@ -6982,7 +6982,7 @@
         <v>-100</v>
       </c>
       <c r="AK47" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL47" s="2" t="n">
         <v>-100</v>
@@ -7080,7 +7080,7 @@
         <v>-100</v>
       </c>
       <c r="X48" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y48" s="2" t="n">
         <v>-100</v>
@@ -7119,7 +7119,7 @@
         <v>-100</v>
       </c>
       <c r="AK48" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL48" s="2" t="n">
         <v>-100</v>
@@ -7190,13 +7190,13 @@
         <v>-100</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P49" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R49" s="2" t="n">
         <v>-100</v>
@@ -7297,7 +7297,7 @@
         <v>-100</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>-100</v>
@@ -7330,7 +7330,7 @@
         <v>-100</v>
       </c>
       <c r="P50" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q50" s="2" t="n">
         <v>-100</v>
@@ -7354,7 +7354,7 @@
         <v>-100</v>
       </c>
       <c r="X50" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y50" s="2" t="n">
         <v>-100</v>
@@ -7381,7 +7381,7 @@
         <v>-100</v>
       </c>
       <c r="AG50" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AH50" s="2" t="n">
         <v>-100</v>
@@ -7393,7 +7393,7 @@
         <v>-100</v>
       </c>
       <c r="AK50" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL50" s="2" t="n">
         <v>-100</v>
@@ -7434,7 +7434,7 @@
         <v>-100</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>-100</v>
@@ -7464,13 +7464,13 @@
         <v>-100</v>
       </c>
       <c r="O51" s="2" t="n">
-        <v>-100</v>
+        <v>150</v>
       </c>
       <c r="P51" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q51" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R51" s="2" t="n">
         <v>-100</v>
@@ -7491,10 +7491,10 @@
         <v>-100</v>
       </c>
       <c r="X51" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y51" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Z51" s="2" t="n">
         <v>-100</v>
@@ -7518,7 +7518,7 @@
         <v>-100</v>
       </c>
       <c r="AG51" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AH51" s="2" t="n">
         <v>-100</v>
@@ -7530,7 +7530,7 @@
         <v>-100</v>
       </c>
       <c r="AK51" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL51" s="2" t="n">
         <v>-100</v>
@@ -7571,7 +7571,7 @@
         <v>-100</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>-100</v>
@@ -7628,7 +7628,7 @@
         <v>-100</v>
       </c>
       <c r="X52" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y52" s="2" t="n">
         <v>-100</v>
@@ -7667,7 +7667,7 @@
         <v>-100</v>
       </c>
       <c r="AK52" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL52" s="2" t="n">
         <v>-100</v>
@@ -7708,7 +7708,7 @@
         <v>-100</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>-100</v>
@@ -7738,13 +7738,13 @@
         <v>-100</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P53" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>-100</v>
@@ -7765,7 +7765,7 @@
         <v>-100</v>
       </c>
       <c r="X53" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y53" s="2" t="n">
         <v>-100</v>
@@ -7804,7 +7804,7 @@
         <v>-100</v>
       </c>
       <c r="AK53" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL53" s="2" t="n">
         <v>-100</v>
@@ -7845,7 +7845,7 @@
         <v>-100</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>-100</v>
@@ -7902,7 +7902,7 @@
         <v>-100</v>
       </c>
       <c r="X54" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y54" s="2" t="n">
         <v>-100</v>
@@ -7941,7 +7941,7 @@
         <v>-100</v>
       </c>
       <c r="AK54" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL54" s="2" t="n">
         <v>-100</v>
@@ -7976,13 +7976,13 @@
         <v>100</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>-100</v>
@@ -8110,7 +8110,7 @@
         <v>100</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>100</v>
@@ -8119,7 +8119,7 @@
         <v>-100</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>-100</v>
@@ -8149,13 +8149,13 @@
         <v>-100</v>
       </c>
       <c r="O56" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P56" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q56" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R56" s="2" t="n">
         <v>-100</v>
@@ -8176,10 +8176,10 @@
         <v>-100</v>
       </c>
       <c r="X56" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y56" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z56" s="2" t="n">
         <v>-100</v>
@@ -8203,7 +8203,7 @@
         <v>-100</v>
       </c>
       <c r="AG56" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AH56" s="2" t="n">
         <v>-100</v>
@@ -8215,7 +8215,7 @@
         <v>-100</v>
       </c>
       <c r="AK56" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL56" s="2" t="n">
         <v>-100</v>
@@ -8247,7 +8247,7 @@
         <v>100</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>100</v>
@@ -8256,7 +8256,7 @@
         <v>-100</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>-100</v>
@@ -8286,13 +8286,13 @@
         <v>-100</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P57" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R57" s="2" t="n">
         <v>-100</v>
@@ -8340,7 +8340,7 @@
         <v>-100</v>
       </c>
       <c r="AG57" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AH57" s="2" t="n">
         <v>-100</v>
@@ -8393,7 +8393,7 @@
         <v>-100</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>-100</v>
@@ -8423,13 +8423,13 @@
         <v>-100</v>
       </c>
       <c r="O58" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P58" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q58" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R58" s="2" t="n">
         <v>-100</v>
@@ -8450,7 +8450,7 @@
         <v>-100</v>
       </c>
       <c r="X58" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y58" s="2" t="n">
         <v>-100</v>
@@ -8477,7 +8477,7 @@
         <v>-100</v>
       </c>
       <c r="AG58" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AH58" s="2" t="n">
         <v>-100</v>
@@ -8489,7 +8489,7 @@
         <v>-100</v>
       </c>
       <c r="AK58" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL58" s="2" t="n">
         <v>-100</v>
@@ -8521,16 +8521,16 @@
         <v>100</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C59" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="D59" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>-100</v>
@@ -8560,13 +8560,13 @@
         <v>-100</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P59" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R59" s="2" t="n">
         <v>-100</v>
@@ -8587,7 +8587,7 @@
         <v>-100</v>
       </c>
       <c r="X59" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y59" s="2" t="n">
         <v>-100</v>
@@ -8614,7 +8614,7 @@
         <v>-100</v>
       </c>
       <c r="AG59" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AH59" s="2" t="n">
         <v>-100</v>
@@ -8626,7 +8626,7 @@
         <v>-100</v>
       </c>
       <c r="AK59" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL59" s="2" t="n">
         <v>-100</v>
@@ -8667,7 +8667,7 @@
         <v>-100</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>-100</v>
@@ -8804,7 +8804,7 @@
         <v>-100</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>-100</v>
@@ -8932,7 +8932,7 @@
         <v>100</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>100</v>
@@ -8941,7 +8941,7 @@
         <v>-100</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>-100</v>
@@ -8998,7 +8998,7 @@
         <v>-100</v>
       </c>
       <c r="X62" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y62" s="2" t="n">
         <v>-100</v>
@@ -9025,7 +9025,7 @@
         <v>-100</v>
       </c>
       <c r="AG62" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AH62" s="2" t="n">
         <v>-100</v>
@@ -9037,7 +9037,7 @@
         <v>-100</v>
       </c>
       <c r="AK62" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL62" s="2" t="n">
         <v>-100</v>
@@ -9078,7 +9078,7 @@
         <v>-100</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>-100</v>
@@ -9162,7 +9162,7 @@
         <v>-100</v>
       </c>
       <c r="AG63" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AH63" s="2" t="n">
         <v>-100</v>
@@ -9215,7 +9215,7 @@
         <v>-100</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>-100</v>
@@ -9275,7 +9275,7 @@
         <v>100</v>
       </c>
       <c r="Y64" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Z64" s="2" t="n">
         <v>-100</v>
@@ -9352,7 +9352,7 @@
         <v>-100</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>-100</v>
@@ -9480,7 +9480,7 @@
         <v>100</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>100</v>
@@ -9489,7 +9489,7 @@
         <v>-100</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>-100</v>
@@ -9519,13 +9519,13 @@
         <v>-100</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P66" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R66" s="2" t="n">
         <v>-100</v>
@@ -9549,7 +9549,7 @@
         <v>-100</v>
       </c>
       <c r="Y66" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z66" s="2" t="n">
         <v>-100</v>
@@ -9573,7 +9573,7 @@
         <v>-100</v>
       </c>
       <c r="AG66" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AH66" s="2" t="n">
         <v>-100</v>
@@ -9617,7 +9617,7 @@
         <v>100</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>100</v>
@@ -9626,7 +9626,7 @@
         <v>-100</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>-100</v>
@@ -9686,7 +9686,7 @@
         <v>100</v>
       </c>
       <c r="Y67" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z67" s="2" t="n">
         <v>-100</v>
@@ -9710,7 +9710,7 @@
         <v>-100</v>
       </c>
       <c r="AG67" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AH67" s="2" t="n">
         <v>-100</v>
@@ -9754,7 +9754,7 @@
         <v>100</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>100</v>
@@ -9763,7 +9763,7 @@
         <v>-100</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>-100</v>
@@ -9823,7 +9823,7 @@
         <v>100</v>
       </c>
       <c r="Y68" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z68" s="2" t="n">
         <v>-100</v>
@@ -9900,7 +9900,7 @@
         <v>-100</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>-100</v>
@@ -9930,13 +9930,13 @@
         <v>-100</v>
       </c>
       <c r="O69" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P69" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q69" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R69" s="2" t="n">
         <v>-100</v>
@@ -9960,7 +9960,7 @@
         <v>100</v>
       </c>
       <c r="Y69" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Z69" s="2" t="n">
         <v>-100</v>
@@ -10028,7 +10028,7 @@
         <v>100</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>100</v>
@@ -10037,7 +10037,7 @@
         <v>-100</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>-100</v>
@@ -10094,7 +10094,7 @@
         <v>-100</v>
       </c>
       <c r="X70" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y70" s="2" t="n">
         <v>100</v>
@@ -10121,7 +10121,7 @@
         <v>-100</v>
       </c>
       <c r="AG70" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AH70" s="2" t="n">
         <v>-100</v>
@@ -10133,7 +10133,7 @@
         <v>-100</v>
       </c>
       <c r="AK70" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL70" s="2" t="n">
         <v>-100</v>
@@ -10165,7 +10165,7 @@
         <v>100</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>100</v>
@@ -10174,7 +10174,7 @@
         <v>-100</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F71" s="2" t="n">
         <v>-100</v>
@@ -10302,7 +10302,7 @@
         <v>100</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>100</v>
@@ -10311,7 +10311,7 @@
         <v>-100</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>-100</v>
@@ -10341,13 +10341,13 @@
         <v>-100</v>
       </c>
       <c r="O72" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P72" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q72" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R72" s="2" t="n">
         <v>-100</v>
@@ -10368,10 +10368,10 @@
         <v>-100</v>
       </c>
       <c r="X72" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y72" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Z72" s="2" t="n">
         <v>-100</v>
@@ -10407,7 +10407,7 @@
         <v>-100</v>
       </c>
       <c r="AK72" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL72" s="2" t="n">
         <v>-100</v>
@@ -10448,7 +10448,7 @@
         <v>-100</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>-100</v>
@@ -10478,13 +10478,13 @@
         <v>-100</v>
       </c>
       <c r="O73" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P73" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q73" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R73" s="2" t="n">
         <v>-100</v>
@@ -10532,7 +10532,7 @@
         <v>-100</v>
       </c>
       <c r="AG73" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AH73" s="2" t="n">
         <v>-100</v>
@@ -10585,7 +10585,7 @@
         <v>-100</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>-100</v>
@@ -10615,13 +10615,13 @@
         <v>-100</v>
       </c>
       <c r="O74" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P74" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q74" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R74" s="2" t="n">
         <v>-100</v>
@@ -10642,10 +10642,10 @@
         <v>-100</v>
       </c>
       <c r="X74" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y74" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Z74" s="2" t="n">
         <v>-100</v>
@@ -10669,7 +10669,7 @@
         <v>-100</v>
       </c>
       <c r="AG74" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AH74" s="2" t="n">
         <v>-100</v>
@@ -10681,7 +10681,7 @@
         <v>-100</v>
       </c>
       <c r="AK74" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL74" s="2" t="n">
         <v>-100</v>
@@ -10722,7 +10722,7 @@
         <v>-100</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>-100</v>
@@ -10752,13 +10752,13 @@
         <v>-100</v>
       </c>
       <c r="O75" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P75" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q75" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R75" s="2" t="n">
         <v>-100</v>
@@ -10782,7 +10782,7 @@
         <v>100</v>
       </c>
       <c r="Y75" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Z75" s="2" t="n">
         <v>-100</v>
@@ -10806,7 +10806,7 @@
         <v>-100</v>
       </c>
       <c r="AG75" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AH75" s="2" t="n">
         <v>-100</v>
@@ -10856,10 +10856,10 @@
         <v>100</v>
       </c>
       <c r="D76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>-100</v>
@@ -10886,13 +10886,13 @@
         <v>-100</v>
       </c>
       <c r="N76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q76" s="2" t="n">
         <v>-100</v>
@@ -10916,7 +10916,7 @@
         <v>-100</v>
       </c>
       <c r="X76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y76" s="2" t="n">
         <v>-100</v>
@@ -10943,7 +10943,7 @@
         <v>-100</v>
       </c>
       <c r="AG76" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AH76" s="2" t="n">
         <v>-100</v>
@@ -10952,31 +10952,31 @@
         <v>-100</v>
       </c>
       <c r="AJ76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN76" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AP76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AR76" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AS76" s="2" t="n">
         <v>-100</v>
@@ -10996,7 +10996,7 @@
         <v>-100</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>-100</v>
@@ -11026,13 +11026,13 @@
         <v>-100</v>
       </c>
       <c r="O77" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P77" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q77" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R77" s="2" t="n">
         <v>-100</v>
@@ -11056,7 +11056,7 @@
         <v>100</v>
       </c>
       <c r="Y77" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Z77" s="2" t="n">
         <v>-100</v>
@@ -11092,28 +11092,28 @@
         <v>-100</v>
       </c>
       <c r="AK77" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL77" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM77" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN77" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO77" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AP77" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AQ77" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AR77" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AS77" s="2" t="n">
         <v>-100</v>
@@ -11133,7 +11133,7 @@
         <v>-100</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F78" s="2" t="n">
         <v>-100</v>
@@ -11160,7 +11160,7 @@
         <v>-100</v>
       </c>
       <c r="N78" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O78" s="2" t="n">
         <v>100</v>
@@ -11169,7 +11169,7 @@
         <v>100</v>
       </c>
       <c r="Q78" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R78" s="2" t="n">
         <v>-100</v>
@@ -11190,7 +11190,7 @@
         <v>-100</v>
       </c>
       <c r="X78" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y78" s="2" t="n">
         <v>-100</v>
@@ -11226,31 +11226,31 @@
         <v>-100</v>
       </c>
       <c r="AJ78" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK78" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL78" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM78" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN78" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO78" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AP78" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ78" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AR78" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AS78" s="2" t="n">
         <v>-100</v>
@@ -11270,7 +11270,7 @@
         <v>-100</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>-100</v>
@@ -11297,13 +11297,13 @@
         <v>-100</v>
       </c>
       <c r="N79" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O79" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P79" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q79" s="2" t="n">
         <v>-100</v>
@@ -11327,7 +11327,7 @@
         <v>-100</v>
       </c>
       <c r="X79" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y79" s="2" t="n">
         <v>-100</v>
@@ -11366,7 +11366,7 @@
         <v>-100</v>
       </c>
       <c r="AK79" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL79" s="2" t="n">
         <v>-100</v>
@@ -11404,10 +11404,10 @@
         <v>100</v>
       </c>
       <c r="D80" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>-100</v>
@@ -11434,13 +11434,13 @@
         <v>-100</v>
       </c>
       <c r="N80" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O80" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P80" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q80" s="2" t="n">
         <v>-100</v>
@@ -11500,34 +11500,34 @@
         <v>-100</v>
       </c>
       <c r="AJ80" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK80" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL80" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM80" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN80" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO80" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="AP80" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="AQ80" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AR80" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AS80" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="81">
@@ -11544,7 +11544,7 @@
         <v>-100</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F81" s="2" t="n">
         <v>-100</v>
@@ -11601,7 +11601,7 @@
         <v>-100</v>
       </c>
       <c r="X81" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="2" t="n">
         <v>-100</v>
@@ -11643,25 +11643,25 @@
         <v>-100</v>
       </c>
       <c r="AL81" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM81" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN81" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO81" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AP81" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AQ81" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AR81" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AS81" s="2" t="n">
         <v>-100</v>
@@ -11681,7 +11681,7 @@
         <v>-100</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>-100</v>
@@ -11780,28 +11780,28 @@
         <v>100</v>
       </c>
       <c r="AL82" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM82" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN82" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO82" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AP82" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AQ82" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AR82" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AS82" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83">
@@ -11818,7 +11818,7 @@
         <v>-100</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F83" s="2" t="n">
         <v>-100</v>
@@ -11875,7 +11875,7 @@
         <v>-100</v>
       </c>
       <c r="X83" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y83" s="2" t="n">
         <v>-100</v>
@@ -11911,10 +11911,10 @@
         <v>-100</v>
       </c>
       <c r="AJ83" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK83" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL83" s="2" t="n">
         <v>-100</v>
@@ -11946,7 +11946,7 @@
         <v>100</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>100</v>
@@ -11955,7 +11955,7 @@
         <v>-100</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>-100</v>
@@ -11982,13 +11982,13 @@
         <v>-100</v>
       </c>
       <c r="N84" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O84" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P84" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q84" s="2" t="n">
         <v>-100</v>
@@ -12063,7 +12063,7 @@
         <v>-100</v>
       </c>
       <c r="AO84" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AP84" s="2" t="n">
         <v>-100</v>
@@ -12092,7 +12092,7 @@
         <v>-100</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F85" s="2" t="n">
         <v>-100</v>
@@ -12185,31 +12185,31 @@
         <v>-100</v>
       </c>
       <c r="AJ85" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK85" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL85" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM85" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN85" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO85" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AP85" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ85" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AR85" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AS85" s="2" t="n">
         <v>-100</v>
@@ -12220,7 +12220,7 @@
         <v>100</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>100</v>
@@ -12229,7 +12229,7 @@
         <v>-100</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F86" s="2" t="n">
         <v>-100</v>
@@ -12322,10 +12322,10 @@
         <v>-100</v>
       </c>
       <c r="AJ86" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK86" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL86" s="2" t="n">
         <v>-100</v>
@@ -12349,7 +12349,7 @@
         <v>-100</v>
       </c>
       <c r="AS86" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87">
@@ -12366,7 +12366,7 @@
         <v>-100</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F87" s="2" t="n">
         <v>-100</v>
@@ -12393,13 +12393,13 @@
         <v>-100</v>
       </c>
       <c r="N87" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O87" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P87" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q87" s="2" t="n">
         <v>-100</v>
@@ -12474,7 +12474,7 @@
         <v>-100</v>
       </c>
       <c r="AO87" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AP87" s="2" t="n">
         <v>-100</v>
@@ -12503,7 +12503,7 @@
         <v>-100</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F88" s="2" t="n">
         <v>-100</v>
@@ -12623,7 +12623,7 @@
         <v>-100</v>
       </c>
       <c r="AS88" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89">
@@ -12640,7 +12640,7 @@
         <v>-100</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F89" s="2" t="n">
         <v>-100</v>
@@ -12667,13 +12667,13 @@
         <v>-100</v>
       </c>
       <c r="N89" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q89" s="2" t="n">
         <v>-100</v>
@@ -12697,7 +12697,7 @@
         <v>-100</v>
       </c>
       <c r="X89" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="2" t="n">
         <v>-100</v>
@@ -12733,31 +12733,31 @@
         <v>-100</v>
       </c>
       <c r="AJ89" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK89" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL89" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM89" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN89" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO89" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AP89" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AQ89" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AR89" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AS89" s="2" t="n">
         <v>-100</v>
@@ -12777,7 +12777,7 @@
         <v>-100</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F90" s="2" t="n">
         <v>-100</v>
@@ -12804,13 +12804,13 @@
         <v>-100</v>
       </c>
       <c r="N90" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O90" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P90" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q90" s="2" t="n">
         <v>-100</v>
@@ -12870,10 +12870,10 @@
         <v>-100</v>
       </c>
       <c r="AJ90" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK90" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL90" s="2" t="n">
         <v>-100</v>
@@ -12897,7 +12897,7 @@
         <v>-100</v>
       </c>
       <c r="AS90" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="91">
@@ -12905,7 +12905,7 @@
         <v>100</v>
       </c>
       <c r="B91" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>100</v>
@@ -12914,7 +12914,7 @@
         <v>-100</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F91" s="2" t="n">
         <v>-100</v>
@@ -13007,34 +13007,34 @@
         <v>-100</v>
       </c>
       <c r="AJ91" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK91" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL91" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM91" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN91" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO91" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AP91" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ91" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AR91" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AS91" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="92">
@@ -13051,7 +13051,7 @@
         <v>-100</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F92" s="2" t="n">
         <v>-100</v>
@@ -13078,13 +13078,13 @@
         <v>-100</v>
       </c>
       <c r="N92" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O92" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P92" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q92" s="2" t="n">
         <v>-100</v>
@@ -13108,7 +13108,7 @@
         <v>-100</v>
       </c>
       <c r="X92" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y92" s="2" t="n">
         <v>-100</v>
@@ -13144,16 +13144,16 @@
         <v>-100</v>
       </c>
       <c r="AJ92" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK92" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL92" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AM92" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AN92" s="2" t="n">
         <v>-100</v>
@@ -13162,16 +13162,16 @@
         <v>100</v>
       </c>
       <c r="AP92" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AQ92" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AR92" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AS92" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93">
@@ -13179,7 +13179,7 @@
         <v>100</v>
       </c>
       <c r="B93" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>100</v>
@@ -13188,7 +13188,7 @@
         <v>-100</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F93" s="2" t="n">
         <v>-100</v>
@@ -13287,25 +13287,25 @@
         <v>100</v>
       </c>
       <c r="AL93" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM93" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN93" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO93" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AP93" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ93" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AR93" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AS93" s="2" t="n">
         <v>-100</v>
@@ -13325,7 +13325,7 @@
         <v>-100</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F94" s="2" t="n">
         <v>-100</v>
@@ -13352,13 +13352,13 @@
         <v>-100</v>
       </c>
       <c r="N94" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O94" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P94" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="2" t="n">
         <v>-100</v>
@@ -13382,7 +13382,7 @@
         <v>-100</v>
       </c>
       <c r="X94" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y94" s="2" t="n">
         <v>-100</v>
@@ -13418,10 +13418,10 @@
         <v>-100</v>
       </c>
       <c r="AJ94" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK94" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL94" s="2" t="n">
         <v>-100</v>
@@ -13453,7 +13453,7 @@
         <v>100</v>
       </c>
       <c r="B95" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>100</v>
@@ -13462,7 +13462,7 @@
         <v>-100</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F95" s="2" t="n">
         <v>-100</v>
@@ -13555,16 +13555,16 @@
         <v>-100</v>
       </c>
       <c r="AJ95" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK95" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL95" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="AM95" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="AN95" s="2" t="n">
         <v>-100</v>
@@ -13573,16 +13573,16 @@
         <v>-100</v>
       </c>
       <c r="AP95" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="AQ95" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="AR95" s="2" t="n">
-        <v>-100</v>
+        <v>90</v>
       </c>
       <c r="AS95" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="96">
@@ -13590,7 +13590,7 @@
         <v>100</v>
       </c>
       <c r="B96" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>100</v>
@@ -13599,7 +13599,7 @@
         <v>-100</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F96" s="2" t="n">
         <v>-100</v>
@@ -13656,7 +13656,7 @@
         <v>-100</v>
       </c>
       <c r="X96" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y96" s="2" t="n">
         <v>-100</v>
@@ -13692,16 +13692,16 @@
         <v>-100</v>
       </c>
       <c r="AJ96" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK96" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL96" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AM96" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AN96" s="2" t="n">
         <v>-100</v>
@@ -13710,13 +13710,13 @@
         <v>100</v>
       </c>
       <c r="AP96" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AQ96" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AR96" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AS96" s="2" t="n">
         <v>-100</v>
@@ -13727,7 +13727,7 @@
         <v>100</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>100</v>
@@ -13736,7 +13736,7 @@
         <v>-100</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F97" s="2" t="n">
         <v>-100</v>
@@ -13763,13 +13763,13 @@
         <v>-100</v>
       </c>
       <c r="N97" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O97" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P97" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q97" s="2" t="n">
         <v>-100</v>
@@ -13793,7 +13793,7 @@
         <v>-100</v>
       </c>
       <c r="X97" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y97" s="2" t="n">
         <v>-100</v>
@@ -13835,25 +13835,25 @@
         <v>100</v>
       </c>
       <c r="AL97" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM97" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN97" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO97" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AP97" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AQ97" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AR97" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AS97" s="2" t="n">
         <v>-100</v>
@@ -13864,7 +13864,7 @@
         <v>100</v>
       </c>
       <c r="B98" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>100</v>
@@ -13873,7 +13873,7 @@
         <v>-100</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F98" s="2" t="n">
         <v>-100</v>
@@ -13900,13 +13900,13 @@
         <v>-100</v>
       </c>
       <c r="N98" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O98" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P98" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q98" s="2" t="n">
         <v>-100</v>
@@ -13930,7 +13930,7 @@
         <v>-100</v>
       </c>
       <c r="X98" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y98" s="2" t="n">
         <v>-100</v>
@@ -13993,7 +13993,7 @@
         <v>-100</v>
       </c>
       <c r="AS98" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99">
@@ -14010,7 +14010,7 @@
         <v>-100</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F99" s="2" t="n">
         <v>-100</v>
@@ -14118,7 +14118,7 @@
         <v>-100</v>
       </c>
       <c r="AO99" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AP99" s="2" t="n">
         <v>-100</v>
@@ -14130,7 +14130,7 @@
         <v>-100</v>
       </c>
       <c r="AS99" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="100">
@@ -14147,7 +14147,7 @@
         <v>-100</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F100" s="2" t="n">
         <v>-100</v>
@@ -14174,13 +14174,13 @@
         <v>-100</v>
       </c>
       <c r="N100" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O100" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P100" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q100" s="2" t="n">
         <v>-100</v>
@@ -14240,16 +14240,16 @@
         <v>-100</v>
       </c>
       <c r="AJ100" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK100" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL100" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM100" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN100" s="2" t="n">
         <v>-100</v>
@@ -14258,13 +14258,13 @@
         <v>100</v>
       </c>
       <c r="AP100" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ100" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AR100" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AS100" s="2" t="n">
         <v>-100</v>
@@ -14284,7 +14284,7 @@
         <v>-100</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F101" s="2" t="n">
         <v>-100</v>
@@ -14311,13 +14311,13 @@
         <v>-100</v>
       </c>
       <c r="N101" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O101" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P101" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q101" s="2" t="n">
         <v>-100</v>
@@ -14377,10 +14377,10 @@
         <v>-100</v>
       </c>
       <c r="AJ101" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK101" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL101" s="2" t="n">
         <v>-100</v>
@@ -14404,7 +14404,7 @@
         <v>-100</v>
       </c>
       <c r="AS101" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="102">
@@ -14421,10 +14421,10 @@
         <v>-100</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F102" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G102" s="2" t="n">
         <v>-100</v>
@@ -14478,7 +14478,7 @@
         <v>-100</v>
       </c>
       <c r="X102" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="2" t="n">
         <v>-100</v>
@@ -14532,7 +14532,7 @@
         <v>-100</v>
       </c>
       <c r="AP102" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ102" s="2" t="n">
         <v>-100</v>
@@ -14558,7 +14558,7 @@
         <v>-100</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F103" s="2" t="n">
         <v>-100</v>
@@ -14657,10 +14657,10 @@
         <v>100</v>
       </c>
       <c r="AL103" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM103" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN103" s="2" t="n">
         <v>-100</v>
@@ -14672,13 +14672,13 @@
         <v>-100</v>
       </c>
       <c r="AQ103" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AR103" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AS103" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104">
@@ -14695,7 +14695,7 @@
         <v>-100</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F104" s="2" t="n">
         <v>-100</v>
@@ -14722,13 +14722,13 @@
         <v>-100</v>
       </c>
       <c r="N104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q104" s="2" t="n">
         <v>-100</v>
@@ -14752,7 +14752,7 @@
         <v>-100</v>
       </c>
       <c r="X104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y104" s="2" t="n">
         <v>-100</v>
@@ -14788,34 +14788,34 @@
         <v>-100</v>
       </c>
       <c r="AJ104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN104" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AP104" s="2" t="n">
         <v>100</v>
       </c>
       <c r="AQ104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AR104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AS104" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="105">
@@ -14832,7 +14832,7 @@
         <v>-100</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F105" s="2" t="n">
         <v>-100</v>
@@ -14859,13 +14859,13 @@
         <v>-100</v>
       </c>
       <c r="N105" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O105" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P105" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q105" s="2" t="n">
         <v>-100</v>
@@ -14889,7 +14889,7 @@
         <v>-100</v>
       </c>
       <c r="X105" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y105" s="2" t="n">
         <v>-100</v>
@@ -14925,31 +14925,31 @@
         <v>-100</v>
       </c>
       <c r="AJ105" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK105" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL105" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM105" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN105" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO105" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AP105" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AQ105" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AR105" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AS105" s="2" t="n">
         <v>-100</v>
@@ -14969,7 +14969,7 @@
         <v>-100</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F106" s="2" t="n">
         <v>-100</v>
@@ -15106,7 +15106,7 @@
         <v>-100</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F107" s="2" t="n">
         <v>-100</v>
@@ -15226,7 +15226,7 @@
         <v>100</v>
       </c>
       <c r="AS107" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="108">
@@ -15243,7 +15243,7 @@
         <v>-100</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F108" s="2" t="n">
         <v>-100</v>
@@ -15380,7 +15380,7 @@
         <v>-100</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F109" s="2" t="n">
         <v>-100</v>
@@ -15500,7 +15500,7 @@
         <v>100</v>
       </c>
       <c r="AS109" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="110">
@@ -15517,7 +15517,7 @@
         <v>-100</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F110" s="2" t="n">
         <v>-100</v>
@@ -15616,10 +15616,10 @@
         <v>-100</v>
       </c>
       <c r="AL110" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM110" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN110" s="2" t="n">
         <v>-100</v>
@@ -15628,7 +15628,7 @@
         <v>-100</v>
       </c>
       <c r="AP110" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AQ110" s="2" t="n">
         <v>-100</v>
@@ -15654,7 +15654,7 @@
         <v>-100</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F111" s="2" t="n">
         <v>-100</v>
@@ -15753,10 +15753,10 @@
         <v>100</v>
       </c>
       <c r="AL111" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM111" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN111" s="2" t="n">
         <v>-100</v>
@@ -15765,7 +15765,7 @@
         <v>100</v>
       </c>
       <c r="AP111" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ111" s="2" t="n">
         <v>100</v>
@@ -15774,7 +15774,7 @@
         <v>100</v>
       </c>
       <c r="AS111" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112">
@@ -15791,7 +15791,7 @@
         <v>-100</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F112" s="2" t="n">
         <v>-100</v>
@@ -15893,7 +15893,7 @@
         <v>-100</v>
       </c>
       <c r="AM112" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN112" s="2" t="n">
         <v>-100</v>
@@ -15902,7 +15902,7 @@
         <v>-100</v>
       </c>
       <c r="AP112" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AQ112" s="2" t="n">
         <v>-100</v>
@@ -15928,7 +15928,7 @@
         <v>-100</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F113" s="2" t="n">
         <v>-100</v>
@@ -16030,7 +16030,7 @@
         <v>100</v>
       </c>
       <c r="AM113" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN113" s="2" t="n">
         <v>-100</v>
@@ -16039,7 +16039,7 @@
         <v>100</v>
       </c>
       <c r="AP113" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ113" s="2" t="n">
         <v>100</v>
@@ -16048,7 +16048,7 @@
         <v>100</v>
       </c>
       <c r="AS113" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="114">
@@ -16065,7 +16065,7 @@
         <v>-100</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F114" s="2" t="n">
         <v>-100</v>
@@ -16077,19 +16077,19 @@
         <v>-100</v>
       </c>
       <c r="I114" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J114" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K114" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L114" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M114" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N114" s="2" t="n">
         <v>-100</v>
@@ -16101,7 +16101,7 @@
         <v>-100</v>
       </c>
       <c r="Q114" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R114" s="2" t="n">
         <v>-100</v>
@@ -16128,7 +16128,7 @@
         <v>-100</v>
       </c>
       <c r="Z114" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AA114" s="2" t="n">
         <v>-100</v>
@@ -16161,13 +16161,13 @@
         <v>-100</v>
       </c>
       <c r="AK114" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL114" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM114" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN114" s="2" t="n">
         <v>-100</v>
@@ -16202,7 +16202,7 @@
         <v>-100</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F115" s="2" t="n">
         <v>-100</v>
@@ -16229,13 +16229,13 @@
         <v>-100</v>
       </c>
       <c r="N115" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O115" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P115" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q115" s="2" t="n">
         <v>-100</v>
@@ -16259,7 +16259,7 @@
         <v>-100</v>
       </c>
       <c r="X115" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y115" s="2" t="n">
         <v>-100</v>
@@ -16295,10 +16295,10 @@
         <v>-100</v>
       </c>
       <c r="AJ115" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK115" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL115" s="2" t="n">
         <v>-100</v>
@@ -16310,19 +16310,19 @@
         <v>-100</v>
       </c>
       <c r="AO115" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AP115" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AQ115" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AR115" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AS115" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="116">
@@ -16339,7 +16339,7 @@
         <v>-100</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F116" s="2" t="n">
         <v>-100</v>
@@ -16351,16 +16351,16 @@
         <v>-100</v>
       </c>
       <c r="I116" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J116" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K116" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L116" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M116" s="2" t="n">
         <v>-100</v>
@@ -16402,7 +16402,7 @@
         <v>-100</v>
       </c>
       <c r="Z116" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AA116" s="2" t="n">
         <v>-100</v>
@@ -16435,13 +16435,13 @@
         <v>-100</v>
       </c>
       <c r="AK116" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL116" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AM116" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN116" s="2" t="n">
         <v>-100</v>
@@ -16476,7 +16476,7 @@
         <v>-100</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F117" s="2" t="n">
         <v>-100</v>
@@ -16488,31 +16488,31 @@
         <v>-100</v>
       </c>
       <c r="I117" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J117" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K117" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L117" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M117" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N117" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O117" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P117" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q117" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R117" s="2" t="n">
         <v>-100</v>
@@ -16533,13 +16533,13 @@
         <v>-100</v>
       </c>
       <c r="X117" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y117" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="Z117" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AA117" s="2" t="n">
         <v>-100</v>
@@ -16569,13 +16569,13 @@
         <v>-100</v>
       </c>
       <c r="AJ117" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK117" s="2" t="n">
         <v>100</v>
       </c>
       <c r="AL117" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM117" s="2" t="n">
         <v>-100</v>
@@ -16584,19 +16584,19 @@
         <v>-100</v>
       </c>
       <c r="AO117" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AP117" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AQ117" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AR117" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AS117" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
     </row>
     <row r="118">
@@ -16613,7 +16613,7 @@
         <v>-100</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F118" s="2" t="n">
         <v>-100</v>
@@ -16637,7 +16637,7 @@
         <v>100</v>
       </c>
       <c r="M118" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N118" s="2" t="n">
         <v>-100</v>
@@ -16649,7 +16649,7 @@
         <v>-100</v>
       </c>
       <c r="Q118" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R118" s="2" t="n">
         <v>-100</v>
@@ -16750,7 +16750,7 @@
         <v>-100</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F119" s="2" t="n">
         <v>-100</v>
@@ -16762,16 +16762,16 @@
         <v>-100</v>
       </c>
       <c r="I119" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J119" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K119" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L119" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M119" s="2" t="n">
         <v>-100</v>
@@ -16786,7 +16786,7 @@
         <v>-100</v>
       </c>
       <c r="Q119" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="R119" s="2" t="n">
         <v>-100</v>
@@ -16813,7 +16813,7 @@
         <v>-100</v>
       </c>
       <c r="Z119" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AA119" s="2" t="n">
         <v>-100</v>
@@ -16846,7 +16846,7 @@
         <v>-100</v>
       </c>
       <c r="AK119" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL119" s="2" t="n">
         <v>-100</v>
@@ -16878,7 +16878,7 @@
         <v>100</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>100</v>
@@ -16887,10 +16887,10 @@
         <v>-100</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F120" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G120" s="2" t="n">
         <v>-100</v>
@@ -16899,16 +16899,16 @@
         <v>-100</v>
       </c>
       <c r="I120" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J120" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K120" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L120" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M120" s="2" t="n">
         <v>-100</v>
@@ -16923,7 +16923,7 @@
         <v>-100</v>
       </c>
       <c r="Q120" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="R120" s="2" t="n">
         <v>-100</v>
@@ -16950,7 +16950,7 @@
         <v>-100</v>
       </c>
       <c r="Z120" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AA120" s="2" t="n">
         <v>-100</v>
@@ -16983,7 +16983,7 @@
         <v>-100</v>
       </c>
       <c r="AK120" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL120" s="2" t="n">
         <v>-100</v>
@@ -17024,7 +17024,7 @@
         <v>-100</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F121" s="2" t="n">
         <v>-100</v>
@@ -17036,16 +17036,16 @@
         <v>-100</v>
       </c>
       <c r="I121" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J121" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K121" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L121" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M121" s="2" t="n">
         <v>100</v>
@@ -17060,7 +17060,7 @@
         <v>-100</v>
       </c>
       <c r="Q121" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="R121" s="2" t="n">
         <v>-100</v>
@@ -17087,7 +17087,7 @@
         <v>-100</v>
       </c>
       <c r="Z121" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AA121" s="2" t="n">
         <v>-100</v>
@@ -17120,7 +17120,7 @@
         <v>-100</v>
       </c>
       <c r="AK121" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL121" s="2" t="n">
         <v>-100</v>
@@ -17161,10 +17161,10 @@
         <v>-100</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>-100</v>
@@ -17173,19 +17173,19 @@
         <v>-100</v>
       </c>
       <c r="I122" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J122" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K122" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L122" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M122" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N122" s="2" t="n">
         <v>-100</v>
@@ -17224,7 +17224,7 @@
         <v>-100</v>
       </c>
       <c r="Z122" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AA122" s="2" t="n">
         <v>-100</v>
@@ -17257,7 +17257,7 @@
         <v>-100</v>
       </c>
       <c r="AK122" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL122" s="2" t="n">
         <v>-100</v>
@@ -17298,10 +17298,10 @@
         <v>-100</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F123" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G123" s="2" t="n">
         <v>-100</v>
@@ -17334,7 +17334,7 @@
         <v>-100</v>
       </c>
       <c r="Q123" s="2" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="R123" s="2" t="n">
         <v>-100</v>
@@ -17426,7 +17426,7 @@
         <v>100</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>100</v>
@@ -17435,10 +17435,10 @@
         <v>-100</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>-100</v>
@@ -17447,19 +17447,19 @@
         <v>-100</v>
       </c>
       <c r="I124" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J124" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K124" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L124" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M124" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N124" s="2" t="n">
         <v>-100</v>
@@ -17471,7 +17471,7 @@
         <v>-100</v>
       </c>
       <c r="Q124" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="R124" s="2" t="n">
         <v>-100</v>
@@ -17498,7 +17498,7 @@
         <v>-100</v>
       </c>
       <c r="Z124" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AA124" s="2" t="n">
         <v>-100</v>
@@ -17531,7 +17531,7 @@
         <v>-100</v>
       </c>
       <c r="AK124" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL124" s="2" t="n">
         <v>-100</v>
@@ -17572,10 +17572,10 @@
         <v>-100</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>-100</v>
@@ -17596,7 +17596,7 @@
         <v>-100</v>
       </c>
       <c r="M125" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N125" s="2" t="n">
         <v>-100</v>
@@ -17608,7 +17608,7 @@
         <v>-100</v>
       </c>
       <c r="Q125" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="R125" s="2" t="n">
         <v>-100</v>
@@ -17709,7 +17709,7 @@
         <v>-100</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F126" s="2" t="n">
         <v>-100</v>
@@ -17721,16 +17721,16 @@
         <v>-100</v>
       </c>
       <c r="I126" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J126" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K126" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L126" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M126" s="2" t="n">
         <v>100</v>
@@ -17772,7 +17772,7 @@
         <v>-100</v>
       </c>
       <c r="Z126" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AA126" s="2" t="n">
         <v>-100</v>
@@ -17805,7 +17805,7 @@
         <v>-100</v>
       </c>
       <c r="AK126" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL126" s="2" t="n">
         <v>-100</v>
@@ -17846,7 +17846,7 @@
         <v>-100</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F127" s="2" t="n">
         <v>-100</v>
@@ -17870,7 +17870,7 @@
         <v>100</v>
       </c>
       <c r="M127" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N127" s="2" t="n">
         <v>-100</v>
@@ -17882,7 +17882,7 @@
         <v>-100</v>
       </c>
       <c r="Q127" s="2" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="R127" s="2" t="n">
         <v>-100</v>
@@ -17974,7 +17974,7 @@
         <v>100</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C128" s="2" t="n">
         <v>100</v>
@@ -17983,7 +17983,7 @@
         <v>-100</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F128" s="2" t="n">
         <v>-100</v>
@@ -17995,19 +17995,19 @@
         <v>-100</v>
       </c>
       <c r="I128" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J128" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K128" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L128" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M128" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N128" s="2" t="n">
         <v>-100</v>
@@ -18019,7 +18019,7 @@
         <v>-100</v>
       </c>
       <c r="Q128" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="R128" s="2" t="n">
         <v>-100</v>
@@ -18046,7 +18046,7 @@
         <v>-100</v>
       </c>
       <c r="Z128" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AA128" s="2" t="n">
         <v>-100</v>
@@ -18079,7 +18079,7 @@
         <v>-100</v>
       </c>
       <c r="AK128" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL128" s="2" t="n">
         <v>-100</v>
@@ -18111,7 +18111,7 @@
         <v>100</v>
       </c>
       <c r="B129" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C129" s="2" t="n">
         <v>100</v>
@@ -18120,7 +18120,7 @@
         <v>-100</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F129" s="2" t="n">
         <v>-100</v>
@@ -18129,22 +18129,22 @@
         <v>-100</v>
       </c>
       <c r="H129" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I129" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J129" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K129" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L129" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M129" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N129" s="2" t="n">
         <v>-100</v>
@@ -18156,7 +18156,7 @@
         <v>-100</v>
       </c>
       <c r="Q129" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="R129" s="2" t="n">
         <v>-100</v>
@@ -18165,7 +18165,7 @@
         <v>-100</v>
       </c>
       <c r="T129" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U129" s="2" t="n">
         <v>-100</v>
@@ -18207,16 +18207,16 @@
         <v>-100</v>
       </c>
       <c r="AH129" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AI129" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AJ129" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AK129" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL129" s="2" t="n">
         <v>-100</v>
@@ -18248,7 +18248,7 @@
         <v>100</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C130" s="2" t="n">
         <v>100</v>
@@ -18257,7 +18257,7 @@
         <v>-100</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F130" s="2" t="n">
         <v>-100</v>
@@ -18269,19 +18269,19 @@
         <v>-100</v>
       </c>
       <c r="I130" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J130" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K130" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L130" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M130" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N130" s="2" t="n">
         <v>-100</v>
@@ -18320,7 +18320,7 @@
         <v>-100</v>
       </c>
       <c r="Z130" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AA130" s="2" t="n">
         <v>-100</v>
@@ -18353,7 +18353,7 @@
         <v>-100</v>
       </c>
       <c r="AK130" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL130" s="2" t="n">
         <v>-100</v>
@@ -18385,7 +18385,7 @@
         <v>100</v>
       </c>
       <c r="B131" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C131" s="2" t="n">
         <v>100</v>
@@ -18394,7 +18394,7 @@
         <v>-100</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F131" s="2" t="n">
         <v>-100</v>
@@ -18403,35 +18403,35 @@
         <v>-100</v>
       </c>
       <c r="H131" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I131" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="J131" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K131" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L131" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M131" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N131" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="O131" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="P131" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="Q131" s="2" t="n">
         <v>105</v>
       </c>
-      <c r="I131" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="J131" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="K131" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="L131" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="M131" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="N131" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="O131" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P131" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="Q131" s="2" t="n">
-        <v>-100</v>
-      </c>
       <c r="R131" s="2" t="n">
         <v>-100</v>
       </c>
@@ -18439,7 +18439,7 @@
         <v>-100</v>
       </c>
       <c r="T131" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U131" s="2" t="n">
         <v>-100</v>
@@ -18457,7 +18457,7 @@
         <v>-100</v>
       </c>
       <c r="Z131" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AA131" s="2" t="n">
         <v>-100</v>
@@ -18481,10 +18481,10 @@
         <v>-100</v>
       </c>
       <c r="AH131" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="AI131" s="2" t="n">
-        <v>105</v>
+        <v>-100</v>
       </c>
       <c r="AJ131" s="2" t="n">
         <v>-100</v>
@@ -18531,7 +18531,7 @@
         <v>-100</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F132" s="2" t="n">
         <v>-100</v>
@@ -18540,35 +18540,35 @@
         <v>-100</v>
       </c>
       <c r="H132" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I132" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J132" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K132" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L132" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="M132" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N132" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="O132" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="P132" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="Q132" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="I132" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="J132" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="K132" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L132" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="M132" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="N132" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="O132" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="P132" s="2" t="n">
-        <v>-100</v>
-      </c>
-      <c r="Q132" s="2" t="n">
-        <v>-100</v>
-      </c>
       <c r="R132" s="2" t="n">
         <v>-100</v>
       </c>
@@ -18618,10 +18618,10 @@
         <v>-100</v>
       </c>
       <c r="AH132" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AI132" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AJ132" s="2" t="n">
         <v>-100</v>
@@ -18668,7 +18668,7 @@
         <v>-100</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F133" s="2" t="n">
         <v>-100</v>
@@ -18805,7 +18805,7 @@
         <v>-100</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F134" s="2" t="n">
         <v>-100</v>
@@ -18814,7 +18814,7 @@
         <v>-100</v>
       </c>
       <c r="H134" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="I134" s="2" t="n">
         <v>-100</v>
@@ -18892,10 +18892,10 @@
         <v>-100</v>
       </c>
       <c r="AH134" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AI134" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AJ134" s="2" t="n">
         <v>-100</v>
@@ -18942,7 +18942,7 @@
         <v>-100</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F135" s="2" t="n">
         <v>-100</v>
@@ -18951,22 +18951,22 @@
         <v>-100</v>
       </c>
       <c r="H135" s="2" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="I135" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J135" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K135" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L135" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M135" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N135" s="2" t="n">
         <v>-100</v>
@@ -18987,7 +18987,7 @@
         <v>-100</v>
       </c>
       <c r="T135" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U135" s="2" t="n">
         <v>-100</v>
@@ -19029,16 +19029,16 @@
         <v>-100</v>
       </c>
       <c r="AH135" s="2" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="AI135" s="2" t="n">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="AJ135" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AK135" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL135" s="2" t="n">
         <v>-100</v>
@@ -19079,7 +19079,7 @@
         <v>-100</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F136" s="2" t="n">
         <v>-100</v>
@@ -19088,22 +19088,22 @@
         <v>-100</v>
       </c>
       <c r="H136" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="I136" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J136" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K136" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L136" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M136" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N136" s="2" t="n">
         <v>-100</v>
@@ -19124,7 +19124,7 @@
         <v>-100</v>
       </c>
       <c r="T136" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U136" s="2" t="n">
         <v>-100</v>
@@ -19166,16 +19166,16 @@
         <v>-100</v>
       </c>
       <c r="AH136" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AI136" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ136" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AK136" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL136" s="2" t="n">
         <v>-100</v>
@@ -19216,7 +19216,7 @@
         <v>-100</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F137" s="2" t="n">
         <v>-100</v>
@@ -19225,22 +19225,22 @@
         <v>-100</v>
       </c>
       <c r="H137" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="I137" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J137" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K137" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L137" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M137" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N137" s="2" t="n">
         <v>-100</v>
@@ -19261,7 +19261,7 @@
         <v>-100</v>
       </c>
       <c r="T137" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U137" s="2" t="n">
         <v>-100</v>
@@ -19303,16 +19303,16 @@
         <v>-100</v>
       </c>
       <c r="AH137" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AI137" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AJ137" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AK137" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL137" s="2" t="n">
         <v>-100</v>
@@ -19353,7 +19353,7 @@
         <v>-100</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F138" s="2" t="n">
         <v>-100</v>
@@ -19362,22 +19362,22 @@
         <v>-100</v>
       </c>
       <c r="H138" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="I138" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J138" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K138" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L138" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M138" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N138" s="2" t="n">
         <v>-100</v>
@@ -19398,7 +19398,7 @@
         <v>-100</v>
       </c>
       <c r="T138" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U138" s="2" t="n">
         <v>-100</v>
@@ -19440,16 +19440,16 @@
         <v>-100</v>
       </c>
       <c r="AH138" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AI138" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ138" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AK138" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL138" s="2" t="n">
         <v>-100</v>
@@ -19490,7 +19490,7 @@
         <v>-100</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F139" s="2" t="n">
         <v>-100</v>
@@ -19499,7 +19499,7 @@
         <v>-100</v>
       </c>
       <c r="H139" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="I139" s="2" t="n">
         <v>-100</v>
@@ -19577,10 +19577,10 @@
         <v>-100</v>
       </c>
       <c r="AH139" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AI139" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AJ139" s="2" t="n">
         <v>-100</v>
@@ -19627,7 +19627,7 @@
         <v>-100</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F140" s="2" t="n">
         <v>-100</v>
@@ -19717,7 +19717,7 @@
         <v>-100</v>
       </c>
       <c r="AI140" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AJ140" s="2" t="n">
         <v>-100</v>
@@ -19764,7 +19764,7 @@
         <v>-100</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F141" s="2" t="n">
         <v>-100</v>
@@ -19773,7 +19773,7 @@
         <v>-100</v>
       </c>
       <c r="H141" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="I141" s="2" t="n">
         <v>-100</v>
@@ -19851,10 +19851,10 @@
         <v>-100</v>
       </c>
       <c r="AH141" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AI141" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AJ141" s="2" t="n">
         <v>-100</v>
@@ -19901,7 +19901,7 @@
         <v>-100</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F142" s="2" t="n">
         <v>-100</v>
@@ -19910,7 +19910,7 @@
         <v>-100</v>
       </c>
       <c r="H142" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I142" s="2" t="n">
         <v>100</v>
@@ -19988,10 +19988,10 @@
         <v>-100</v>
       </c>
       <c r="AH142" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AI142" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AJ142" s="2" t="n">
         <v>-100</v>
@@ -20038,7 +20038,7 @@
         <v>-100</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F143" s="2" t="n">
         <v>-100</v>
@@ -20128,7 +20128,7 @@
         <v>-100</v>
       </c>
       <c r="AI143" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AJ143" s="2" t="n">
         <v>-100</v>
@@ -20175,10 +20175,10 @@
         <v>-100</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F144" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G144" s="2" t="n">
         <v>-100</v>
@@ -20187,19 +20187,19 @@
         <v>-100</v>
       </c>
       <c r="I144" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J144" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K144" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L144" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M144" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N144" s="2" t="n">
         <v>-100</v>
@@ -20220,7 +20220,7 @@
         <v>-100</v>
       </c>
       <c r="T144" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U144" s="2" t="n">
         <v>-100</v>
@@ -20271,7 +20271,7 @@
         <v>-100</v>
       </c>
       <c r="AK144" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL144" s="2" t="n">
         <v>-100</v>
@@ -20312,7 +20312,7 @@
         <v>-100</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F145" s="2" t="n">
         <v>-100</v>
@@ -20449,7 +20449,7 @@
         <v>-100</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F146" s="2" t="n">
         <v>-100</v>
@@ -20586,7 +20586,7 @@
         <v>-100</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F147" s="2" t="n">
         <v>-100</v>
@@ -20676,7 +20676,7 @@
         <v>-100</v>
       </c>
       <c r="AI147" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AJ147" s="2" t="n">
         <v>-100</v>
@@ -20723,7 +20723,7 @@
         <v>-100</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F148" s="2" t="n">
         <v>-100</v>
@@ -20732,22 +20732,22 @@
         <v>-100</v>
       </c>
       <c r="H148" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I148" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J148" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K148" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L148" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M148" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N148" s="2" t="n">
         <v>-100</v>
@@ -20768,7 +20768,7 @@
         <v>-100</v>
       </c>
       <c r="T148" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U148" s="2" t="n">
         <v>-100</v>
@@ -20810,7 +20810,7 @@
         <v>-100</v>
       </c>
       <c r="AH148" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AI148" s="2" t="n">
         <v>-100</v>
@@ -20819,7 +20819,7 @@
         <v>-100</v>
       </c>
       <c r="AK148" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL148" s="2" t="n">
         <v>-100</v>
@@ -20860,7 +20860,7 @@
         <v>-100</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F149" s="2" t="n">
         <v>-100</v>
@@ -20997,7 +20997,7 @@
         <v>-100</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F150" s="2" t="n">
         <v>-100</v>
@@ -21134,7 +21134,7 @@
         <v>-100</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F151" s="2" t="n">
         <v>-100</v>
@@ -21271,7 +21271,7 @@
         <v>-100</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F152" s="2" t="n">
         <v>-100</v>
@@ -21408,7 +21408,7 @@
         <v>-100</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F153" s="2" t="n">
         <v>-100</v>
@@ -21420,19 +21420,19 @@
         <v>-100</v>
       </c>
       <c r="I153" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="J153" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="K153" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="L153" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="M153" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="N153" s="2" t="n">
         <v>-100</v>
@@ -21453,7 +21453,7 @@
         <v>-100</v>
       </c>
       <c r="T153" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="U153" s="2" t="n">
         <v>-100</v>
@@ -21498,7 +21498,7 @@
         <v>-100</v>
       </c>
       <c r="AI153" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AJ153" s="2" t="n">
         <v>-100</v>
@@ -21545,7 +21545,7 @@
         <v>-100</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F154" s="2" t="n">
         <v>-100</v>
@@ -21554,16 +21554,16 @@
         <v>-100</v>
       </c>
       <c r="H154" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I154" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J154" s="2" t="n">
         <v>100</v>
       </c>
       <c r="K154" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L154" s="2" t="n">
         <v>100</v>
@@ -21590,7 +21590,7 @@
         <v>-100</v>
       </c>
       <c r="T154" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U154" s="2" t="n">
         <v>-100</v>
@@ -21632,7 +21632,7 @@
         <v>-100</v>
       </c>
       <c r="AH154" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AI154" s="2" t="n">
         <v>-100</v>
@@ -21682,7 +21682,7 @@
         <v>-100</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F155" s="2" t="n">
         <v>-100</v>
@@ -21709,13 +21709,13 @@
         <v>-100</v>
       </c>
       <c r="N155" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O155" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P155" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q155" s="2" t="n">
         <v>-100</v>
@@ -21772,7 +21772,7 @@
         <v>-100</v>
       </c>
       <c r="AI155" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AJ155" s="2" t="n">
         <v>-100</v>
@@ -21819,7 +21819,7 @@
         <v>-100</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F156" s="2" t="n">
         <v>-100</v>
@@ -21828,22 +21828,22 @@
         <v>-100</v>
       </c>
       <c r="H156" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="I156" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J156" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K156" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L156" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M156" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N156" s="2" t="n">
         <v>-100</v>
@@ -21864,7 +21864,7 @@
         <v>-100</v>
       </c>
       <c r="T156" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U156" s="2" t="n">
         <v>-100</v>
@@ -21906,7 +21906,7 @@
         <v>-100</v>
       </c>
       <c r="AH156" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AI156" s="2" t="n">
         <v>-100</v>
@@ -21915,7 +21915,7 @@
         <v>-100</v>
       </c>
       <c r="AK156" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL156" s="2" t="n">
         <v>-100</v>
@@ -21956,10 +21956,10 @@
         <v>-100</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F157" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="G157" s="2" t="n">
         <v>-100</v>
@@ -21968,28 +21968,28 @@
         <v>-100</v>
       </c>
       <c r="I157" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="J157" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="K157" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L157" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="M157" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N157" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O157" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P157" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q157" s="2" t="n">
         <v>-100</v>
@@ -22001,7 +22001,7 @@
         <v>-100</v>
       </c>
       <c r="T157" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U157" s="2" t="n">
         <v>-100</v>
@@ -22093,7 +22093,7 @@
         <v>-100</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F158" s="2" t="n">
         <v>-100</v>
@@ -22108,16 +22108,16 @@
         <v>-100</v>
       </c>
       <c r="J158" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K158" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="L158" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="M158" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="N158" s="2" t="n">
         <v>-100</v>
@@ -22189,7 +22189,7 @@
         <v>-100</v>
       </c>
       <c r="AK158" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AL158" s="2" t="n">
         <v>-100</v>
@@ -22230,7 +22230,7 @@
         <v>-100</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F159" s="2" t="n">
         <v>-100</v>
@@ -22367,7 +22367,7 @@
         <v>-100</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F160" s="2" t="n">
         <v>-100</v>
@@ -22504,7 +22504,7 @@
         <v>-100</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F161" s="2" t="n">
         <v>-100</v>
@@ -22641,7 +22641,7 @@
         <v>-100</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F162" s="2" t="n">
         <v>-100</v>
@@ -22778,7 +22778,7 @@
         <v>-100</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F163" s="2" t="n">
         <v>-100</v>
@@ -22805,13 +22805,13 @@
         <v>-100</v>
       </c>
       <c r="N163" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O163" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P163" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q163" s="2" t="n">
         <v>-100</v>
@@ -22915,7 +22915,7 @@
         <v>-100</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F164" s="2" t="n">
         <v>-100</v>
@@ -23052,7 +23052,7 @@
         <v>-100</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F165" s="2" t="n">
         <v>-100</v>
@@ -23189,7 +23189,7 @@
         <v>-100</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F166" s="2" t="n">
         <v>-100</v>
@@ -23326,7 +23326,7 @@
         <v>-100</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F167" s="2" t="n">
         <v>-100</v>
@@ -23353,13 +23353,13 @@
         <v>-100</v>
       </c>
       <c r="N167" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O167" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P167" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q167" s="2" t="n">
         <v>-100</v>
@@ -23463,7 +23463,7 @@
         <v>-100</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F168" s="2" t="n">
         <v>-100</v>
@@ -23490,13 +23490,13 @@
         <v>-100</v>
       </c>
       <c r="N168" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O168" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P168" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q168" s="2" t="n">
         <v>-100</v>
@@ -23600,7 +23600,7 @@
         <v>-100</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F169" s="2" t="n">
         <v>-100</v>
@@ -23693,7 +23693,7 @@
         <v>-100</v>
       </c>
       <c r="AJ169" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK169" s="2" t="n">
         <v>-100</v>
@@ -23737,7 +23737,7 @@
         <v>-100</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F170" s="2" t="n">
         <v>-100</v>
@@ -23830,7 +23830,7 @@
         <v>-100</v>
       </c>
       <c r="AJ170" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK170" s="2" t="n">
         <v>-100</v>
@@ -23874,7 +23874,7 @@
         <v>-100</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F171" s="2" t="n">
         <v>-100</v>
@@ -23901,13 +23901,13 @@
         <v>-100</v>
       </c>
       <c r="N171" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O171" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P171" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q171" s="2" t="n">
         <v>-100</v>
@@ -24011,7 +24011,7 @@
         <v>-100</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F172" s="2" t="n">
         <v>-100</v>
@@ -24038,13 +24038,13 @@
         <v>-100</v>
       </c>
       <c r="N172" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O172" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P172" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q172" s="2" t="n">
         <v>-100</v>
@@ -24148,7 +24148,7 @@
         <v>-100</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F173" s="2" t="n">
         <v>-100</v>
@@ -24285,7 +24285,7 @@
         <v>-100</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F174" s="2" t="n">
         <v>-100</v>
@@ -24422,7 +24422,7 @@
         <v>-100</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F175" s="2" t="n">
         <v>-100</v>
@@ -24449,13 +24449,13 @@
         <v>-100</v>
       </c>
       <c r="N175" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O175" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P175" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q175" s="2" t="n">
         <v>-100</v>
@@ -24515,7 +24515,7 @@
         <v>-100</v>
       </c>
       <c r="AJ175" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK175" s="2" t="n">
         <v>-100</v>
@@ -24559,7 +24559,7 @@
         <v>-100</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F176" s="2" t="n">
         <v>-100</v>
@@ -24652,7 +24652,7 @@
         <v>-100</v>
       </c>
       <c r="AJ176" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK176" s="2" t="n">
         <v>-100</v>
@@ -24696,7 +24696,7 @@
         <v>-100</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F177" s="2" t="n">
         <v>-100</v>
@@ -24789,7 +24789,7 @@
         <v>-100</v>
       </c>
       <c r="AJ177" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK177" s="2" t="n">
         <v>-100</v>
@@ -24833,7 +24833,7 @@
         <v>-100</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F178" s="2" t="n">
         <v>-100</v>
@@ -24970,7 +24970,7 @@
         <v>-100</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F179" s="2" t="n">
         <v>-100</v>
@@ -24997,13 +24997,13 @@
         <v>-100</v>
       </c>
       <c r="N179" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O179" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P179" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q179" s="2" t="n">
         <v>-100</v>
@@ -25063,7 +25063,7 @@
         <v>-100</v>
       </c>
       <c r="AJ179" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK179" s="2" t="n">
         <v>-100</v>
@@ -25107,7 +25107,7 @@
         <v>-100</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F180" s="2" t="n">
         <v>-100</v>
@@ -25134,13 +25134,13 @@
         <v>-100</v>
       </c>
       <c r="N180" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O180" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P180" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q180" s="2" t="n">
         <v>-100</v>
@@ -25244,7 +25244,7 @@
         <v>-100</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F181" s="2" t="n">
         <v>-100</v>
@@ -25271,13 +25271,13 @@
         <v>-100</v>
       </c>
       <c r="N181" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O181" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P181" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q181" s="2" t="n">
         <v>-100</v>
@@ -25381,7 +25381,7 @@
         <v>-100</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F182" s="2" t="n">
         <v>-100</v>
@@ -25474,7 +25474,7 @@
         <v>-100</v>
       </c>
       <c r="AJ182" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK182" s="2" t="n">
         <v>-100</v>
@@ -25518,7 +25518,7 @@
         <v>-100</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F183" s="2" t="n">
         <v>-100</v>
@@ -25545,13 +25545,13 @@
         <v>-100</v>
       </c>
       <c r="N183" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O183" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="P183" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Q183" s="2" t="n">
         <v>-100</v>
@@ -25655,7 +25655,7 @@
         <v>-100</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F184" s="2" t="n">
         <v>-100</v>
@@ -25792,7 +25792,7 @@
         <v>-100</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F185" s="2" t="n">
         <v>-100</v>
@@ -25858,22 +25858,22 @@
         <v>-100</v>
       </c>
       <c r="AA185" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AB185" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC185" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AD185" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AE185" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AF185" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AG185" s="2" t="n">
         <v>-100</v>
@@ -25897,7 +25897,7 @@
         <v>-100</v>
       </c>
       <c r="AN185" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AO185" s="2" t="n">
         <v>-100</v>
@@ -25929,7 +25929,7 @@
         <v>-100</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F186" s="2" t="n">
         <v>-100</v>
@@ -26066,7 +26066,7 @@
         <v>-100</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F187" s="2" t="n">
         <v>-100</v>
@@ -26093,13 +26093,13 @@
         <v>-100</v>
       </c>
       <c r="N187" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O187" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P187" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q187" s="2" t="n">
         <v>-100</v>
@@ -26132,22 +26132,22 @@
         <v>-100</v>
       </c>
       <c r="AA187" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AB187" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC187" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AD187" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AE187" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AF187" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AG187" s="2" t="n">
         <v>-100</v>
@@ -26171,7 +26171,7 @@
         <v>-100</v>
       </c>
       <c r="AN187" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AO187" s="2" t="n">
         <v>-100</v>
@@ -26203,7 +26203,7 @@
         <v>-100</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F188" s="2" t="n">
         <v>-100</v>
@@ -26230,13 +26230,13 @@
         <v>-100</v>
       </c>
       <c r="N188" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O188" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P188" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Q188" s="2" t="n">
         <v>-100</v>
@@ -26296,7 +26296,7 @@
         <v>-100</v>
       </c>
       <c r="AJ188" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AK188" s="2" t="n">
         <v>-100</v>
@@ -26340,7 +26340,7 @@
         <v>-100</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F189" s="2" t="n">
         <v>-100</v>
@@ -26406,22 +26406,22 @@
         <v>-100</v>
       </c>
       <c r="AA189" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB189" s="2" t="n">
         <v>100</v>
       </c>
       <c r="AC189" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AD189" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AE189" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AF189" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AG189" s="2" t="n">
         <v>-100</v>
@@ -26445,7 +26445,7 @@
         <v>-100</v>
       </c>
       <c r="AN189" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AO189" s="2" t="n">
         <v>-100</v>
@@ -26477,7 +26477,7 @@
         <v>-100</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F190" s="2" t="n">
         <v>-100</v>
@@ -26582,7 +26582,7 @@
         <v>-100</v>
       </c>
       <c r="AN190" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AO190" s="2" t="n">
         <v>-100</v>
@@ -26614,7 +26614,7 @@
         <v>-100</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F191" s="2" t="n">
         <v>-100</v>
@@ -26680,22 +26680,22 @@
         <v>-100</v>
       </c>
       <c r="AA191" s="2" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AB191" s="2" t="n">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AC191" s="2" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AD191" s="2" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AE191" s="2" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AF191" s="2" t="n">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="AG191" s="2" t="n">
         <v>-100</v>
@@ -26751,7 +26751,7 @@
         <v>-100</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F192" s="2" t="n">
         <v>-100</v>
@@ -26817,19 +26817,19 @@
         <v>-100</v>
       </c>
       <c r="AA192" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AB192" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AC192" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AD192" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AE192" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="AF192" s="2" t="n">
         <v>-100</v>
@@ -26856,7 +26856,7 @@
         <v>-100</v>
       </c>
       <c r="AN192" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AO192" s="2" t="n">
         <v>-100</v>
@@ -26888,7 +26888,7 @@
         <v>-100</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F193" s="2" t="n">
         <v>-100</v>
@@ -26954,22 +26954,22 @@
         <v>-100</v>
       </c>
       <c r="AA193" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AB193" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AC193" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AD193" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AE193" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AF193" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AG193" s="2" t="n">
         <v>-100</v>
@@ -27016,7 +27016,7 @@
         <v>100</v>
       </c>
       <c r="B194" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C194" s="2" t="n">
         <v>100</v>
@@ -27025,7 +27025,7 @@
         <v>-100</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F194" s="2" t="n">
         <v>-100</v>
@@ -27091,19 +27091,19 @@
         <v>-100</v>
       </c>
       <c r="AA194" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AB194" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC194" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AD194" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AE194" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AF194" s="2" t="n">
         <v>-100</v>
@@ -27162,7 +27162,7 @@
         <v>-100</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F195" s="2" t="n">
         <v>-100</v>
@@ -27228,22 +27228,22 @@
         <v>-100</v>
       </c>
       <c r="AA195" s="2" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB195" s="2" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AC195" s="2" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AD195" s="2" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AE195" s="2" t="n">
-        <v>-100</v>
+        <v>105</v>
       </c>
       <c r="AF195" s="2" t="n">
-        <v>-100</v>
+        <v>105</v>
       </c>
       <c r="AG195" s="2" t="n">
         <v>-100</v>
@@ -27299,7 +27299,7 @@
         <v>-100</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F196" s="2" t="n">
         <v>-100</v>
@@ -27365,19 +27365,19 @@
         <v>-100</v>
       </c>
       <c r="AA196" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AB196" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AC196" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AD196" s="2" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="AE196" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AF196" s="2" t="n">
         <v>-100</v>
@@ -27404,7 +27404,7 @@
         <v>-100</v>
       </c>
       <c r="AN196" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AO196" s="2" t="n">
         <v>-100</v>
@@ -27427,7 +27427,7 @@
         <v>100</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="C197" s="2" t="n">
         <v>100</v>
@@ -27436,7 +27436,7 @@
         <v>-100</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F197" s="2" t="n">
         <v>-100</v>
@@ -27514,7 +27514,7 @@
         <v>-100</v>
       </c>
       <c r="AE197" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AF197" s="2" t="n">
         <v>100</v>
@@ -27573,7 +27573,7 @@
         <v>-100</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F198" s="2" t="n">
         <v>-100</v>
@@ -27639,22 +27639,22 @@
         <v>-100</v>
       </c>
       <c r="AA198" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AB198" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AC198" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AD198" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AE198" s="2" t="n">
         <v>100</v>
       </c>
       <c r="AF198" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AG198" s="2" t="n">
         <v>-100</v>
@@ -27678,7 +27678,7 @@
         <v>-100</v>
       </c>
       <c r="AN198" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AO198" s="2" t="n">
         <v>-100</v>
@@ -27710,7 +27710,7 @@
         <v>-100</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F199" s="2" t="n">
         <v>-100</v>
@@ -27788,10 +27788,10 @@
         <v>100</v>
       </c>
       <c r="AE199" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AF199" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AG199" s="2" t="n">
         <v>-100</v>
@@ -27815,7 +27815,7 @@
         <v>-100</v>
       </c>
       <c r="AN199" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AO199" s="2" t="n">
         <v>-100</v>
@@ -27847,7 +27847,7 @@
         <v>-100</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F200" s="2" t="n">
         <v>-100</v>
@@ -27913,16 +27913,16 @@
         <v>-100</v>
       </c>
       <c r="AA200" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AB200" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AC200" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AD200" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AE200" s="2" t="n">
         <v>-100</v>
@@ -27952,7 +27952,7 @@
         <v>-100</v>
       </c>
       <c r="AN200" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AO200" s="2" t="n">
         <v>-100</v>
@@ -27975,7 +27975,7 @@
         <v>100</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C201" s="2" t="n">
         <v>100</v>
@@ -27984,7 +27984,7 @@
         <v>-100</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F201" s="2" t="n">
         <v>-100</v>
@@ -28050,22 +28050,22 @@
         <v>-100</v>
       </c>
       <c r="AA201" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AB201" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC201" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AD201" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AE201" s="2" t="n">
         <v>100</v>
       </c>
       <c r="AF201" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AG201" s="2" t="n">
         <v>-100</v>
@@ -28089,7 +28089,7 @@
         <v>-100</v>
       </c>
       <c r="AN201" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AO201" s="2" t="n">
         <v>-100</v>
@@ -28121,7 +28121,7 @@
         <v>-100</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F202" s="2" t="n">
         <v>-100</v>
@@ -28199,7 +28199,7 @@
         <v>-100</v>
       </c>
       <c r="AE202" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AF202" s="2" t="n">
         <v>100</v>
@@ -28258,7 +28258,7 @@
         <v>-100</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F203" s="2" t="n">
         <v>-100</v>
@@ -28324,13 +28324,13 @@
         <v>-100</v>
       </c>
       <c r="AA203" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AB203" s="2" t="n">
         <v>100</v>
       </c>
       <c r="AC203" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AD203" s="2" t="n">
         <v>100</v>
@@ -28363,7 +28363,7 @@
         <v>-100</v>
       </c>
       <c r="AN203" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AO203" s="2" t="n">
         <v>-100</v>
@@ -28395,7 +28395,7 @@
         <v>-100</v>
       </c>
       <c r="E204" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F204" s="2" t="n">
         <v>-100</v>
@@ -28500,7 +28500,7 @@
         <v>-100</v>
       </c>
       <c r="AN204" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AO204" s="2" t="n">
         <v>-100</v>
@@ -28532,7 +28532,7 @@
         <v>-100</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F205" s="2" t="n">
         <v>-100</v>
@@ -28598,13 +28598,13 @@
         <v>-100</v>
       </c>
       <c r="AA205" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AB205" s="2" t="n">
         <v>100</v>
       </c>
       <c r="AC205" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AD205" s="2" t="n">
         <v>100</v>
@@ -28613,7 +28613,7 @@
         <v>100</v>
       </c>
       <c r="AF205" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AG205" s="2" t="n">
         <v>-100</v>
@@ -28669,7 +28669,7 @@
         <v>-100</v>
       </c>
       <c r="E206" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F206" s="2" t="n">
         <v>-100</v>
@@ -28750,7 +28750,7 @@
         <v>-100</v>
       </c>
       <c r="AF206" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AG206" s="2" t="n">
         <v>-100</v>
@@ -28806,7 +28806,7 @@
         <v>-100</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F207" s="2" t="n">
         <v>-100</v>
@@ -28872,16 +28872,16 @@
         <v>-100</v>
       </c>
       <c r="AA207" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AB207" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AC207" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AD207" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AE207" s="2" t="n">
         <v>100</v>
@@ -28911,7 +28911,7 @@
         <v>-100</v>
       </c>
       <c r="AN207" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AO207" s="2" t="n">
         <v>-100</v>
@@ -28943,7 +28943,7 @@
         <v>-100</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F208" s="2" t="n">
         <v>-100</v>
@@ -29048,7 +29048,7 @@
         <v>-100</v>
       </c>
       <c r="AN208" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AO208" s="2" t="n">
         <v>-100</v>
@@ -29080,7 +29080,7 @@
         <v>-100</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F209" s="2" t="n">
         <v>-100</v>
@@ -29146,13 +29146,13 @@
         <v>-100</v>
       </c>
       <c r="AA209" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AB209" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AC209" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AD209" s="2" t="n">
         <v>100</v>
@@ -29185,7 +29185,7 @@
         <v>-100</v>
       </c>
       <c r="AN209" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AO209" s="2" t="n">
         <v>-100</v>
@@ -29217,7 +29217,7 @@
         <v>-100</v>
       </c>
       <c r="E210" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F210" s="2" t="n">
         <v>-100</v>
@@ -29322,7 +29322,7 @@
         <v>-100</v>
       </c>
       <c r="AN210" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AO210" s="2" t="n">
         <v>-100</v>
@@ -29354,7 +29354,7 @@
         <v>-100</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F211" s="2" t="n">
         <v>-100</v>
@@ -29426,10 +29426,10 @@
         <v>-100</v>
       </c>
       <c r="AC211" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AD211" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AE211" s="2" t="n">
         <v>100</v>
@@ -29491,7 +29491,7 @@
         <v>-100</v>
       </c>
       <c r="E212" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F212" s="2" t="n">
         <v>-100</v>
@@ -29628,7 +29628,7 @@
         <v>-100</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F213" s="2" t="n">
         <v>-100</v>
@@ -29697,7 +29697,7 @@
         <v>100</v>
       </c>
       <c r="AB213" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC213" s="2" t="n">
         <v>100</v>
@@ -29706,10 +29706,10 @@
         <v>100</v>
       </c>
       <c r="AE213" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AF213" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AG213" s="2" t="n">
         <v>-100</v>
@@ -29733,7 +29733,7 @@
         <v>-100</v>
       </c>
       <c r="AN213" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AO213" s="2" t="n">
         <v>-100</v>
@@ -29765,7 +29765,7 @@
         <v>-100</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F214" s="2" t="n">
         <v>-100</v>
@@ -29843,10 +29843,10 @@
         <v>-100</v>
       </c>
       <c r="AE214" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AF214" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AG214" s="2" t="n">
         <v>-100</v>
@@ -29870,7 +29870,7 @@
         <v>-100</v>
       </c>
       <c r="AN214" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AO214" s="2" t="n">
         <v>-100</v>
@@ -29902,7 +29902,7 @@
         <v>-100</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F215" s="2" t="n">
         <v>-100</v>
@@ -29971,7 +29971,7 @@
         <v>100</v>
       </c>
       <c r="AB215" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AC215" s="2" t="n">
         <v>100</v>
@@ -29980,10 +29980,10 @@
         <v>100</v>
       </c>
       <c r="AE215" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AF215" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AG215" s="2" t="n">
         <v>-100</v>
@@ -30007,7 +30007,7 @@
         <v>-100</v>
       </c>
       <c r="AN215" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AO215" s="2" t="n">
         <v>-100</v>
@@ -30039,7 +30039,7 @@
         <v>-100</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F216" s="2" t="n">
         <v>-100</v>
@@ -30117,10 +30117,10 @@
         <v>-100</v>
       </c>
       <c r="AE216" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AF216" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AG216" s="2" t="n">
         <v>-100</v>
@@ -30144,7 +30144,7 @@
         <v>-100</v>
       </c>
       <c r="AN216" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AO216" s="2" t="n">
         <v>-100</v>
@@ -30176,7 +30176,7 @@
         <v>-100</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F217" s="2" t="n">
         <v>-100</v>
@@ -30218,13 +30218,13 @@
         <v>-100</v>
       </c>
       <c r="S217" s="2" t="n">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="T217" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="U217" s="2" t="n">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="V217" s="2" t="n">
         <v>-100</v>
@@ -30242,16 +30242,16 @@
         <v>-100</v>
       </c>
       <c r="AA217" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AB217" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AC217" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AD217" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AE217" s="2" t="n">
         <v>-100</v>
@@ -30275,22 +30275,22 @@
         <v>-100</v>
       </c>
       <c r="AL217" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM217" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN217" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AO217" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AP217" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ217" s="2" t="n">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="AR217" s="2" t="n">
         <v>-100</v>
@@ -30304,7 +30304,7 @@
         <v>100</v>
       </c>
       <c r="B218" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C218" s="2" t="n">
         <v>100</v>
@@ -30313,7 +30313,7 @@
         <v>-100</v>
       </c>
       <c r="E218" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F218" s="2" t="n">
         <v>-100</v>
@@ -30391,10 +30391,10 @@
         <v>-100</v>
       </c>
       <c r="AE218" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AF218" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AG218" s="2" t="n">
         <v>-100</v>
@@ -30406,31 +30406,31 @@
         <v>-100</v>
       </c>
       <c r="AJ218" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK218" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL218" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM218" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN218" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO218" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AP218" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ218" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AR218" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AS218" s="2" t="n">
         <v>-100</v>
@@ -30450,7 +30450,7 @@
         <v>-100</v>
       </c>
       <c r="E219" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F219" s="2" t="n">
         <v>-100</v>
@@ -30462,19 +30462,19 @@
         <v>-100</v>
       </c>
       <c r="I219" s="2" t="n">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="J219" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="K219" s="2" t="n">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="L219" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="M219" s="2" t="n">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="N219" s="2" t="n">
         <v>-100</v>
@@ -30486,19 +30486,19 @@
         <v>-100</v>
       </c>
       <c r="Q219" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R219" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="S219" s="2" t="n">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="T219" s="2" t="n">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="U219" s="2" t="n">
-        <v>150</v>
+        <v>-100</v>
       </c>
       <c r="V219" s="2" t="n">
         <v>-100</v>
@@ -30507,7 +30507,7 @@
         <v>-100</v>
       </c>
       <c r="X219" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y219" s="2" t="n">
         <v>-100</v>
@@ -30516,16 +30516,16 @@
         <v>-100</v>
       </c>
       <c r="AA219" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AB219" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AC219" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AD219" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AE219" s="2" t="n">
         <v>-100</v>
@@ -30555,7 +30555,7 @@
         <v>-100</v>
       </c>
       <c r="AN219" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AO219" s="2" t="n">
         <v>-100</v>
@@ -30567,7 +30567,7 @@
         <v>-100</v>
       </c>
       <c r="AR219" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AS219" s="2" t="n">
         <v>-100</v>
@@ -30578,7 +30578,7 @@
         <v>100</v>
       </c>
       <c r="B220" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="C220" s="2" t="n">
         <v>100</v>
@@ -30587,7 +30587,7 @@
         <v>-100</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F220" s="2" t="n">
         <v>-100</v>
@@ -30602,13 +30602,13 @@
         <v>-100</v>
       </c>
       <c r="J220" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="K220" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="L220" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="M220" s="2" t="n">
         <v>-100</v>
@@ -30623,7 +30623,7 @@
         <v>-100</v>
       </c>
       <c r="Q220" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="R220" s="2" t="n">
         <v>-100</v>
@@ -30650,7 +30650,7 @@
         <v>-100</v>
       </c>
       <c r="Z220" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AA220" s="2" t="n">
         <v>-100</v>
@@ -30665,10 +30665,10 @@
         <v>-100</v>
       </c>
       <c r="AE220" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AF220" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AG220" s="2" t="n">
         <v>-100</v>
@@ -30680,28 +30680,28 @@
         <v>-100</v>
       </c>
       <c r="AJ220" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AK220" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AL220" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AM220" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AN220" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO220" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AP220" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AQ220" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AR220" s="2" t="n">
         <v>-100</v>
@@ -30724,7 +30724,7 @@
         <v>-100</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F221" s="2" t="n">
         <v>-100</v>
@@ -30781,7 +30781,7 @@
         <v>-100</v>
       </c>
       <c r="X221" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="Y221" s="2" t="n">
         <v>-100</v>
@@ -30861,7 +30861,7 @@
         <v>-100</v>
       </c>
       <c r="E222" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F222" s="2" t="n">
         <v>-100</v>
@@ -30972,7 +30972,7 @@
         <v>100</v>
       </c>
       <c r="AP222" s="2" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AQ222" s="2" t="n">
         <v>-100</v>
@@ -30998,7 +30998,7 @@
         <v>-100</v>
       </c>
       <c r="E223" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F223" s="2" t="n">
         <v>-100</v>
@@ -31135,7 +31135,7 @@
         <v>-100</v>
       </c>
       <c r="E224" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F224" s="2" t="n">
         <v>-100</v>
@@ -31272,16 +31272,16 @@
         <v>-100</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F225" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="G225" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="H225" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="I225" s="2" t="n">
         <v>-100</v>
@@ -31293,13 +31293,13 @@
         <v>-100</v>
       </c>
       <c r="L225" s="2" t="n">
-        <v>120</v>
+        <v>-100</v>
       </c>
       <c r="M225" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="N225" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="O225" s="2" t="n">
         <v>-100</v>
@@ -31314,13 +31314,13 @@
         <v>-100</v>
       </c>
       <c r="S225" s="2" t="n">
-        <v>-100</v>
+        <v>150</v>
       </c>
       <c r="T225" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="U225" s="2" t="n">
-        <v>-100</v>
+        <v>150</v>
       </c>
       <c r="V225" s="2" t="n">
         <v>-100</v>
@@ -31329,7 +31329,7 @@
         <v>-100</v>
       </c>
       <c r="X225" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="Y225" s="2" t="n">
         <v>-100</v>
@@ -31371,10 +31371,10 @@
         <v>-100</v>
       </c>
       <c r="AL225" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM225" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN225" s="2" t="n">
         <v>-100</v>
@@ -31383,10 +31383,10 @@
         <v>-100</v>
       </c>
       <c r="AP225" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AQ225" s="2" t="n">
-        <v>-100</v>
+        <v>150</v>
       </c>
       <c r="AR225" s="2" t="n">
         <v>-100</v>
@@ -31409,7 +31409,7 @@
         <v>-100</v>
       </c>
       <c r="E226" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="F226" s="2" t="n">
         <v>-100</v>
@@ -31508,27 +31508,301 @@
         <v>100</v>
       </c>
       <c r="AL226" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM226" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN226" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO226" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AP226" s="2" t="n">
-        <v>-100</v>
+        <v>120</v>
       </c>
       <c r="AQ226" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AR226" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AS226" s="2" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B227" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C227" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I227" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="J227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="K227" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="L227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="M227" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="N227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="O227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="P227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="Q227" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="R227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="S227" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="T227" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="U227" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="V227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="W227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="X227" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="Y227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="Z227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AA227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AB227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AC227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AD227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AE227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AF227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AG227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AH227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AI227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AJ227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AK227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AL227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AM227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AN227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AO227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AP227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AQ227" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AR227" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS227" s="2" t="n">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="F228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="G228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="H228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="I228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="J228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="L228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="N228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="O228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="P228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="Q228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="R228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="S228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="T228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="U228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="V228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="W228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="X228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="Y228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="Z228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AB228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AC228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AD228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AE228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AF228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AG228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AH228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AI228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AJ228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AK228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AL228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AM228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AN228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AO228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AP228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AQ228" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="AR228" s="2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="AS228" s="2" t="n">
         <v>-100</v>
       </c>
     </row>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-7419263508323023828" xfId="1" hidden="0"/>
-    <cellStyle name="-4828143853717642063" xfId="2" hidden="0"/>
+    <cellStyle name="-8484999436356730838" xfId="1" hidden="0"/>
+    <cellStyle name="-3777981039892941769" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="8497343407161737634" xfId="1" hidden="0"/>
-    <cellStyle name="-8689602876715973537" xfId="2" hidden="0"/>
+    <cellStyle name="-6414047316666737499" xfId="1" hidden="0"/>
+    <cellStyle name="5082955600731015708" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-6414047316666737499" xfId="1" hidden="0"/>
-    <cellStyle name="5082955600731015708" xfId="2" hidden="0"/>
+    <cellStyle name="-2530548626691860919" xfId="1" hidden="0"/>
+    <cellStyle name="-8450689339554097052" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-2530548626691860919" xfId="1" hidden="0"/>
-    <cellStyle name="-8450689339554097052" xfId="2" hidden="0"/>
+    <cellStyle name="-1846208250074513685" xfId="1" hidden="0"/>
+    <cellStyle name="3717043720368780046" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-1846208250074513685" xfId="1" hidden="0"/>
-    <cellStyle name="3717043720368780046" xfId="2" hidden="0"/>
+    <cellStyle name="6946358839178327375" xfId="1" hidden="0"/>
+    <cellStyle name="4261732418742881178" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-1850982420176637610" xfId="1" hidden="0"/>
-    <cellStyle name="-9123716676838018541" xfId="2" hidden="0"/>
+    <cellStyle name="2841872297552018548" xfId="1" hidden="0"/>
+    <cellStyle name="-7001047475721413543" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="2841872297552018548" xfId="1" hidden="0"/>
-    <cellStyle name="-7001047475721413543" xfId="2" hidden="0"/>
+    <cellStyle name="85468821451494899" xfId="1" hidden="0"/>
+    <cellStyle name="3778486259663978190" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-7322069027803729435" xfId="1" hidden="0"/>
-    <cellStyle name="1843423089739739056" xfId="2" hidden="0"/>
+    <cellStyle name="8175025283374231285" xfId="1" hidden="0"/>
+    <cellStyle name="1783748548240464756" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1257,7 +1257,7 @@
         <v>-100</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2" t="n">
         <v>100</v>
@@ -1415,7 +1415,7 @@
         <v>-100</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O6" s="2" t="n">
         <v>100</v>
@@ -8937,7 +8937,7 @@
         <v>-100</v>
       </c>
       <c r="AT53" s="2" t="n">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AU53" s="2" t="n">
         <v>-100</v>
@@ -9569,10 +9569,10 @@
         <v>-100</v>
       </c>
       <c r="AT57" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AU57" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="AV57" s="2" t="n">
         <v>-100</v>
@@ -9730,7 +9730,7 @@
         <v>-100</v>
       </c>
       <c r="AU58" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AV58" s="2" t="n">
         <v>-100</v>
@@ -10359,10 +10359,10 @@
         <v>-100</v>
       </c>
       <c r="AT62" s="2" t="n">
-        <v>100</v>
+        <v>-50</v>
       </c>
       <c r="AU62" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AV62" s="2" t="n">
         <v>-100</v>
@@ -10675,7 +10675,7 @@
         <v>-100</v>
       </c>
       <c r="AT64" s="2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="AU64" s="2" t="n">
         <v>100</v>
@@ -10833,7 +10833,7 @@
         <v>-100</v>
       </c>
       <c r="AT65" s="2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AU65" s="2" t="n">
         <v>100</v>
@@ -10991,10 +10991,10 @@
         <v>-100</v>
       </c>
       <c r="AT66" s="2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AU66" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="AV66" s="2" t="n">
         <v>-100</v>
@@ -11149,10 +11149,10 @@
         <v>-100</v>
       </c>
       <c r="AT67" s="2" t="n">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="AU67" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="AV67" s="2" t="n">
         <v>-100</v>
@@ -11468,7 +11468,7 @@
         <v>100</v>
       </c>
       <c r="AU69" s="2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AV69" s="2" t="n">
         <v>-100</v>
@@ -11626,7 +11626,7 @@
         <v>-100</v>
       </c>
       <c r="AU70" s="2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AV70" s="2" t="n">
         <v>-100</v>
@@ -12097,7 +12097,7 @@
         <v>-100</v>
       </c>
       <c r="AT73" s="2" t="n">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="AU73" s="2" t="n">
         <v>-100</v>
@@ -12255,7 +12255,7 @@
         <v>-100</v>
       </c>
       <c r="AT74" s="2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="AU74" s="2" t="n">
         <v>-100</v>
@@ -12571,10 +12571,10 @@
         <v>-100</v>
       </c>
       <c r="AT76" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="AU76" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="AV76" s="2" t="n">
         <v>-100</v>
@@ -12729,10 +12729,10 @@
         <v>-100</v>
       </c>
       <c r="AT77" s="2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AU77" s="2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AV77" s="2" t="n">
         <v>-100</v>
@@ -12887,10 +12887,10 @@
         <v>-100</v>
       </c>
       <c r="AT78" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="AU78" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="AV78" s="2" t="n">
         <v>-100</v>
@@ -13206,7 +13206,7 @@
         <v>-100</v>
       </c>
       <c r="AU80" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AV80" s="2" t="n">
         <v>-100</v>
@@ -13364,7 +13364,7 @@
         <v>-100</v>
       </c>
       <c r="AU81" s="2" t="n">
-        <v>100</v>
+        <v>-2000</v>
       </c>
       <c r="AV81" s="2" t="n">
         <v>-100</v>
@@ -14443,10 +14443,10 @@
         <v>100</v>
       </c>
       <c r="AL88" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AM88" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AN88" s="2" t="n">
         <v>-100</v>
@@ -14455,13 +14455,13 @@
         <v>-100</v>
       </c>
       <c r="AP88" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AQ88" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AR88" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AS88" s="2" t="n">
         <v>100</v>
@@ -14529,7 +14529,7 @@
         <v>-100</v>
       </c>
       <c r="N89" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="O89" s="2" t="n">
         <v>-100</v>
@@ -14559,7 +14559,7 @@
         <v>-100</v>
       </c>
       <c r="X89" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="Y89" s="2" t="n">
         <v>-100</v>
@@ -14595,16 +14595,16 @@
         <v>-100</v>
       </c>
       <c r="AJ89" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK89" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL89" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AM89" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AN89" s="2" t="n">
         <v>-100</v>
@@ -14613,16 +14613,16 @@
         <v>-100</v>
       </c>
       <c r="AP89" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AQ89" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AR89" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AS89" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AT89" s="2" t="n">
         <v>-100</v>
@@ -14687,7 +14687,7 @@
         <v>-100</v>
       </c>
       <c r="N90" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="O90" s="2" t="n">
         <v>100</v>
@@ -14717,7 +14717,7 @@
         <v>-100</v>
       </c>
       <c r="X90" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="Y90" s="2" t="n">
         <v>-100</v>
@@ -14753,16 +14753,16 @@
         <v>-100</v>
       </c>
       <c r="AJ90" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AK90" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AL90" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AM90" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AN90" s="2" t="n">
         <v>-100</v>
@@ -14771,16 +14771,16 @@
         <v>100</v>
       </c>
       <c r="AP90" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AQ90" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AR90" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AS90" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AT90" s="2" t="n">
         <v>-100</v>
@@ -14845,7 +14845,7 @@
         <v>-100</v>
       </c>
       <c r="N91" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="O91" s="2" t="n">
         <v>-100</v>
@@ -14875,7 +14875,7 @@
         <v>-100</v>
       </c>
       <c r="X91" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="Y91" s="2" t="n">
         <v>-100</v>
@@ -14911,16 +14911,16 @@
         <v>-100</v>
       </c>
       <c r="AJ91" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AK91" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AL91" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AM91" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AN91" s="2" t="n">
         <v>-100</v>
@@ -14929,16 +14929,16 @@
         <v>100</v>
       </c>
       <c r="AP91" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AQ91" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AR91" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AS91" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AT91" s="2" t="n">
         <v>-100</v>
@@ -15003,7 +15003,7 @@
         <v>-100</v>
       </c>
       <c r="N92" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="O92" s="2" t="n">
         <v>100</v>
@@ -15033,7 +15033,7 @@
         <v>-100</v>
       </c>
       <c r="X92" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="Y92" s="2" t="n">
         <v>-100</v>
@@ -15069,16 +15069,16 @@
         <v>-100</v>
       </c>
       <c r="AJ92" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AK92" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AL92" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AM92" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AN92" s="2" t="n">
         <v>-100</v>
@@ -15087,16 +15087,16 @@
         <v>-100</v>
       </c>
       <c r="AP92" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AQ92" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AR92" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AS92" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AT92" s="2" t="n">
         <v>-100</v>
@@ -15114,7 +15114,7 @@
         <v>-100</v>
       </c>
       <c r="AY92" s="2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AZ92" s="2" t="n">
         <v>-100</v>
@@ -15161,7 +15161,7 @@
         <v>-100</v>
       </c>
       <c r="N93" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="O93" s="2" t="n">
         <v>100</v>
@@ -15191,7 +15191,7 @@
         <v>-100</v>
       </c>
       <c r="X93" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="Y93" s="2" t="n">
         <v>-100</v>
@@ -15227,16 +15227,16 @@
         <v>-100</v>
       </c>
       <c r="AJ93" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK93" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL93" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AM93" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AN93" s="2" t="n">
         <v>-100</v>
@@ -15245,16 +15245,16 @@
         <v>100</v>
       </c>
       <c r="AP93" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AQ93" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AR93" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AS93" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AT93" s="2" t="n">
         <v>-100</v>
@@ -15319,7 +15319,7 @@
         <v>-100</v>
       </c>
       <c r="N94" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="O94" s="2" t="n">
         <v>100</v>
@@ -15349,7 +15349,7 @@
         <v>-100</v>
       </c>
       <c r="X94" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="Y94" s="2" t="n">
         <v>-100</v>
@@ -15385,16 +15385,16 @@
         <v>-100</v>
       </c>
       <c r="AJ94" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AK94" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AL94" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AM94" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AN94" s="2" t="n">
         <v>-100</v>
@@ -15403,16 +15403,16 @@
         <v>100</v>
       </c>
       <c r="AP94" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AQ94" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AR94" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AS94" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AT94" s="2" t="n">
         <v>-100</v>
@@ -15430,7 +15430,7 @@
         <v>-100</v>
       </c>
       <c r="AY94" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="AZ94" s="2" t="n">
         <v>-100</v>
@@ -15477,7 +15477,7 @@
         <v>-100</v>
       </c>
       <c r="N95" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="O95" s="2" t="n">
         <v>-100</v>
@@ -15507,7 +15507,7 @@
         <v>-100</v>
       </c>
       <c r="X95" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="Y95" s="2" t="n">
         <v>-100</v>
@@ -15543,16 +15543,16 @@
         <v>-100</v>
       </c>
       <c r="AJ95" s="2" t="n">
-        <v>150</v>
+        <v>-1000</v>
       </c>
       <c r="AK95" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL95" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AM95" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AN95" s="2" t="n">
         <v>-100</v>
@@ -15561,16 +15561,16 @@
         <v>-100</v>
       </c>
       <c r="AP95" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AQ95" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AR95" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AS95" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AT95" s="2" t="n">
         <v>-100</v>
@@ -15635,7 +15635,7 @@
         <v>-100</v>
       </c>
       <c r="N96" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="O96" s="2" t="n">
         <v>-100</v>
@@ -15665,7 +15665,7 @@
         <v>-100</v>
       </c>
       <c r="X96" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="Y96" s="2" t="n">
         <v>-100</v>
@@ -15701,16 +15701,16 @@
         <v>-100</v>
       </c>
       <c r="AJ96" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AK96" s="2" t="n">
-        <v>150</v>
+        <v>1000</v>
       </c>
       <c r="AL96" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AM96" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AN96" s="2" t="n">
         <v>-100</v>
@@ -15719,16 +15719,16 @@
         <v>-100</v>
       </c>
       <c r="AP96" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AQ96" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AR96" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AS96" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AT96" s="2" t="n">
         <v>-100</v>
@@ -15865,28 +15865,28 @@
         <v>-100</v>
       </c>
       <c r="AL97" s="2" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AM97" s="2" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AN97" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO97" s="2" t="n">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="AP97" s="2" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AQ97" s="2" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AR97" s="2" t="n">
-        <v>90</v>
+        <v>20</v>
       </c>
       <c r="AS97" s="2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AT97" s="2" t="n">
         <v>-100</v>
@@ -15951,7 +15951,7 @@
         <v>-100</v>
       </c>
       <c r="N98" s="2" t="n">
-        <v>-100</v>
+        <v>2.6</v>
       </c>
       <c r="O98" s="2" t="n">
         <v>-100</v>
@@ -15981,7 +15981,7 @@
         <v>-100</v>
       </c>
       <c r="X98" s="2" t="n">
-        <v>-100</v>
+        <v>7.9</v>
       </c>
       <c r="Y98" s="2" t="n">
         <v>-100</v>
@@ -16023,28 +16023,28 @@
         <v>100</v>
       </c>
       <c r="AL98" s="2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AM98" s="2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AN98" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO98" s="2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AP98" s="2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AQ98" s="2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AR98" s="2" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AS98" s="2" t="n">
-        <v>-100</v>
+        <v>-1000</v>
       </c>
       <c r="AT98" s="2" t="n">
         <v>-100</v>
@@ -16109,7 +16109,7 @@
         <v>-100</v>
       </c>
       <c r="N99" s="2" t="n">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="O99" s="2" t="n">
         <v>-100</v>
@@ -16139,7 +16139,7 @@
         <v>-100</v>
       </c>
       <c r="X99" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Y99" s="2" t="n">
         <v>-100</v>
@@ -16175,34 +16175,34 @@
         <v>-100</v>
       </c>
       <c r="AJ99" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="AK99" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="AL99" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AM99" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AN99" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO99" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AP99" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AQ99" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AR99" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AS99" s="2" t="n">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="AT99" s="2" t="n">
         <v>-100</v>
@@ -16220,7 +16220,7 @@
         <v>-100</v>
       </c>
       <c r="AY99" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AZ99" s="2" t="n">
         <v>-100</v>
@@ -16267,7 +16267,7 @@
         <v>-100</v>
       </c>
       <c r="N100" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O100" s="2" t="n">
         <v>100</v>
@@ -16297,7 +16297,7 @@
         <v>-100</v>
       </c>
       <c r="X100" s="2" t="n">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="Y100" s="2" t="n">
         <v>-100</v>
@@ -16333,34 +16333,34 @@
         <v>-100</v>
       </c>
       <c r="AJ100" s="2" t="n">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="AK100" s="2" t="n">
-        <v>-100</v>
+        <v>500</v>
       </c>
       <c r="AL100" s="2" t="n">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="AM100" s="2" t="n">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="AN100" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="AO100" s="2" t="n">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="AP100" s="2" t="n">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="AQ100" s="2" t="n">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="AR100" s="2" t="n">
-        <v>-100</v>
+        <v>-500</v>
       </c>
       <c r="AS100" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AT100" s="2" t="n">
         <v>-100</v>
@@ -16378,7 +16378,7 @@
         <v>-100</v>
       </c>
       <c r="AY100" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="AZ100" s="2" t="n">
         <v>-100</v>
@@ -17615,7 +17615,7 @@
         <v>-100</v>
       </c>
       <c r="AP108" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AQ108" s="2" t="n">
         <v>-100</v>
@@ -17931,7 +17931,7 @@
         <v>-100</v>
       </c>
       <c r="AP110" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AQ110" s="2" t="n">
         <v>-100</v>
@@ -18247,7 +18247,7 @@
         <v>-100</v>
       </c>
       <c r="AP112" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AQ112" s="2" t="n">
         <v>-100</v>
@@ -18563,7 +18563,7 @@
         <v>-100</v>
       </c>
       <c r="AP114" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AQ114" s="2" t="n">
         <v>-100</v>
@@ -19037,7 +19037,7 @@
         <v>100</v>
       </c>
       <c r="AP117" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AQ117" s="2" t="n">
         <v>100</v>
@@ -19353,7 +19353,7 @@
         <v>100</v>
       </c>
       <c r="AP119" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AQ119" s="2" t="n">
         <v>100</v>
@@ -25565,7 +25565,7 @@
         <v>100</v>
       </c>
       <c r="F159" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="G159" s="2" t="n">
         <v>-100</v>
@@ -26537,7 +26537,7 @@
         <v>-100</v>
       </c>
       <c r="N165" s="2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O165" s="2" t="n">
         <v>100</v>
@@ -27113,7 +27113,7 @@
         <v>-100</v>
       </c>
       <c r="AV168" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AW168" s="2" t="n">
         <v>-100</v>
@@ -27271,7 +27271,7 @@
         <v>-100</v>
       </c>
       <c r="AV169" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="AW169" s="2" t="n">
         <v>-100</v>
@@ -27429,7 +27429,7 @@
         <v>-100</v>
       </c>
       <c r="AV170" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AW170" s="2" t="n">
         <v>-100</v>
@@ -27903,7 +27903,7 @@
         <v>-100</v>
       </c>
       <c r="AV173" s="2" t="n">
-        <v>100</v>
+        <v>-300</v>
       </c>
       <c r="AW173" s="2" t="n">
         <v>-100</v>
@@ -28061,7 +28061,7 @@
         <v>-100</v>
       </c>
       <c r="AV174" s="2" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="AW174" s="2" t="n">
         <v>-100</v>
@@ -28117,13 +28117,13 @@
         <v>-100</v>
       </c>
       <c r="N175" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="O175" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="P175" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="Q175" s="2" t="n">
         <v>-100</v>
@@ -28219,7 +28219,7 @@
         <v>-100</v>
       </c>
       <c r="AV175" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AW175" s="2" t="n">
         <v>-100</v>
@@ -28377,7 +28377,7 @@
         <v>-100</v>
       </c>
       <c r="AV176" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="AW176" s="2" t="n">
         <v>-100</v>
@@ -28535,7 +28535,7 @@
         <v>-100</v>
       </c>
       <c r="AV177" s="2" t="n">
-        <v>100</v>
+        <v>-750</v>
       </c>
       <c r="AW177" s="2" t="n">
         <v>-100</v>
@@ -28693,7 +28693,7 @@
         <v>-100</v>
       </c>
       <c r="AV178" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AW178" s="2" t="n">
         <v>-100</v>
@@ -28749,7 +28749,7 @@
         <v>-100</v>
       </c>
       <c r="N179" s="2" t="n">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="O179" s="2" t="n">
         <v>100</v>
@@ -29065,13 +29065,13 @@
         <v>-100</v>
       </c>
       <c r="N181" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="O181" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="P181" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="Q181" s="2" t="n">
         <v>-100</v>
@@ -29173,7 +29173,7 @@
         <v>100</v>
       </c>
       <c r="AX181" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AY181" s="2" t="n">
         <v>-100</v>
@@ -29223,13 +29223,13 @@
         <v>-100</v>
       </c>
       <c r="N182" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="O182" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="P182" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="Q182" s="2" t="n">
         <v>-100</v>
@@ -29328,10 +29328,10 @@
         <v>-100</v>
       </c>
       <c r="AW182" s="2" t="n">
-        <v>100</v>
+        <v>-100</v>
       </c>
       <c r="AX182" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AY182" s="2" t="n">
         <v>-100</v>
@@ -29539,13 +29539,13 @@
         <v>-100</v>
       </c>
       <c r="N184" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="O184" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="P184" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="Q184" s="2" t="n">
         <v>-100</v>
@@ -29644,10 +29644,10 @@
         <v>-100</v>
       </c>
       <c r="AW184" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AX184" s="2" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="AY184" s="2" t="n">
         <v>-100</v>
@@ -29697,13 +29697,13 @@
         <v>-100</v>
       </c>
       <c r="N185" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O185" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P185" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q185" s="2" t="n">
         <v>-100</v>
@@ -29802,10 +29802,10 @@
         <v>-100</v>
       </c>
       <c r="AW185" s="2" t="n">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="AX185" s="2" t="n">
-        <v>100</v>
+        <v>-1000</v>
       </c>
       <c r="AY185" s="2" t="n">
         <v>-100</v>
@@ -29855,13 +29855,13 @@
         <v>-100</v>
       </c>
       <c r="N186" s="2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="O186" s="2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="P186" s="2" t="n">
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="Q186" s="2" t="n">
         <v>-100</v>
@@ -29960,10 +29960,10 @@
         <v>-100</v>
       </c>
       <c r="AW186" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AX186" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AY186" s="2" t="n">
         <v>-100</v>
@@ -30279,7 +30279,7 @@
         <v>-100</v>
       </c>
       <c r="AX188" s="2" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AY188" s="2" t="n">
         <v>-100</v>
@@ -30329,13 +30329,13 @@
         <v>-100</v>
       </c>
       <c r="N189" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O189" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P189" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q189" s="2" t="n">
         <v>-100</v>
@@ -30434,10 +30434,10 @@
         <v>-100</v>
       </c>
       <c r="AW189" s="2" t="n">
-        <v>100</v>
+        <v>-750</v>
       </c>
       <c r="AX189" s="2" t="n">
-        <v>100</v>
+        <v>-750</v>
       </c>
       <c r="AY189" s="2" t="n">
         <v>-100</v>
@@ -30487,13 +30487,13 @@
         <v>-100</v>
       </c>
       <c r="N190" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="O190" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="P190" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="Q190" s="2" t="n">
         <v>-100</v>
@@ -30592,10 +30592,10 @@
         <v>-100</v>
       </c>
       <c r="AW190" s="2" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="AX190" s="2" t="n">
-        <v>100</v>
+        <v>750</v>
       </c>
       <c r="AY190" s="2" t="n">
         <v>-100</v>
@@ -30645,13 +30645,13 @@
         <v>-100</v>
       </c>
       <c r="N191" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="O191" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="P191" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="Q191" s="2" t="n">
         <v>-100</v>
@@ -30750,10 +30750,10 @@
         <v>-100</v>
       </c>
       <c r="AW191" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AX191" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AY191" s="2" t="n">
         <v>-100</v>
@@ -30803,13 +30803,13 @@
         <v>-100</v>
       </c>
       <c r="N192" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="O192" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="P192" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="Q192" s="2" t="n">
         <v>-100</v>
@@ -30908,10 +30908,10 @@
         <v>-100</v>
       </c>
       <c r="AW192" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="AX192" s="2" t="n">
-        <v>100</v>
+        <v>-500</v>
       </c>
       <c r="AY192" s="2" t="n">
         <v>-100</v>
@@ -30961,13 +30961,13 @@
         <v>-100</v>
       </c>
       <c r="N193" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="O193" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="P193" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="Q193" s="2" t="n">
         <v>-100</v>
@@ -31066,10 +31066,10 @@
         <v>-100</v>
       </c>
       <c r="AW193" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="AX193" s="2" t="n">
-        <v>100</v>
+        <v>-250</v>
       </c>
       <c r="AY193" s="2" t="n">
         <v>-100</v>
@@ -31224,10 +31224,10 @@
         <v>-100</v>
       </c>
       <c r="AW194" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AX194" s="2" t="n">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="AY194" s="2" t="n">
         <v>-100</v>
@@ -32595,7 +32595,7 @@
         <v>-100</v>
       </c>
       <c r="AF203" s="2" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AG203" s="2" t="n">
         <v>-100</v>
@@ -33385,7 +33385,7 @@
         <v>100</v>
       </c>
       <c r="AF208" s="2" t="n">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="AG208" s="2" t="n">
         <v>-100</v>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="8175025283374231285" xfId="1" hidden="0"/>
-    <cellStyle name="1783748548240464756" xfId="2" hidden="0"/>
+    <cellStyle name="8424042651838142275" xfId="1" hidden="0"/>
+    <cellStyle name="-5781674908043628574" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="8424042651838142275" xfId="1" hidden="0"/>
-    <cellStyle name="-5781674908043628574" xfId="2" hidden="0"/>
+    <cellStyle name="-8490957888390876483" xfId="1" hidden="0"/>
+    <cellStyle name="-7734008423643777264" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -12255,7 +12255,7 @@
         <v>-100</v>
       </c>
       <c r="AT74" s="2" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AU74" s="2" t="n">
         <v>-100</v>
@@ -29855,13 +29855,13 @@
         <v>-100</v>
       </c>
       <c r="N186" s="2" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O186" s="2" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="P186" s="2" t="n">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q186" s="2" t="n">
         <v>-100</v>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-8490957888390876483" xfId="1" hidden="0"/>
-    <cellStyle name="-7734008423643777264" xfId="2" hidden="0"/>
+    <cellStyle name="5740276335091568313" xfId="1" hidden="0"/>
+    <cellStyle name="2758868754290400872" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="5740276335091568313" xfId="1" hidden="0"/>
-    <cellStyle name="2758868754290400872" xfId="2" hidden="0"/>
+    <cellStyle name="-3461359740035512041" xfId="1" hidden="0"/>
+    <cellStyle name="-6798734036897175570" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-3461359740035512041" xfId="1" hidden="0"/>
-    <cellStyle name="-6798734036897175570" xfId="2" hidden="0"/>
+    <cellStyle name="7025962719958434977" xfId="1" hidden="0"/>
+    <cellStyle name="590504459222155676" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -747,7 +747,7 @@
         <v>-100</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>-100</v>
@@ -762,142 +762,142 @@
         <v>-100</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="Y2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AA2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AB2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AC2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AD2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AE2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AF2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AG2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AH2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AI2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AJ2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AL2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AM2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AN2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AO2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AP2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AQ2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AR2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AS2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AT2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AU2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AW2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AX2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AY2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AZ2" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
     </row>
     <row r="3">
@@ -905,7 +905,7 @@
         <v>-100</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>-100</v>
@@ -920,118 +920,118 @@
         <v>-100</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="Y3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="Z3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AA3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AB3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AC3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AD3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AE3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AF3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AG3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AH3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AI3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AJ3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AK3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AL3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AM3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AN3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AO3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AP3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AQ3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AR3" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AS3" s="2" t="n">
         <v>-100</v>
@@ -1063,7 +1063,7 @@
         <v>-100</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>-100</v>
@@ -1078,7 +1078,7 @@
         <v>-100</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="H4" s="2" t="n">
         <v>-100</v>
@@ -1218,19 +1218,19 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F5" s="2" t="n">
         <v>-100</v>
@@ -1376,19 +1376,19 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D6" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F6" s="2" t="n">
         <v>-100</v>
@@ -1534,19 +1534,19 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F7" s="2" t="n">
         <v>-100</v>
@@ -1692,19 +1692,19 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F8" s="2" t="n">
         <v>-100</v>
@@ -1850,19 +1850,19 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D9" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>-100</v>
@@ -2008,19 +2008,19 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F10" s="2" t="n">
         <v>-100</v>
@@ -2166,19 +2166,19 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D11" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F11" s="2" t="n">
         <v>-100</v>
@@ -2324,19 +2324,19 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D12" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>-100</v>
@@ -2482,19 +2482,19 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D13" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>-100</v>
@@ -2640,19 +2640,19 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D14" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>-100</v>
@@ -2798,19 +2798,19 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D15" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>-100</v>
@@ -2956,19 +2956,19 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D16" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>-100</v>
@@ -3114,19 +3114,19 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D17" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>-100</v>
@@ -3272,19 +3272,19 @@
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D18" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>-100</v>
@@ -3430,19 +3430,19 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B19" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D19" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>-100</v>
@@ -3588,10 +3588,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>-100</v>
@@ -3600,7 +3600,7 @@
         <v>-100</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>-100</v>
@@ -3746,19 +3746,19 @@
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D21" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>-100</v>
@@ -3904,19 +3904,19 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B22" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D22" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>-100</v>
@@ -4062,19 +4062,19 @@
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D23" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>-100</v>
@@ -4220,19 +4220,19 @@
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B24" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D24" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>-100</v>
@@ -4378,19 +4378,19 @@
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B25" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D25" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>-100</v>
@@ -4536,19 +4536,19 @@
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B26" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D26" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>-100</v>
@@ -4694,19 +4694,19 @@
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>-100</v>
@@ -4852,19 +4852,19 @@
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B28" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D28" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>-100</v>
@@ -5010,19 +5010,19 @@
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B29" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>-100</v>
@@ -5168,19 +5168,19 @@
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>-100</v>
@@ -5326,19 +5326,19 @@
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B31" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D31" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>-100</v>
@@ -5484,19 +5484,19 @@
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B32" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>-100</v>
@@ -5642,19 +5642,19 @@
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B33" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D33" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>-100</v>
@@ -5800,19 +5800,19 @@
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D34" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>-100</v>
@@ -5958,19 +5958,19 @@
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B35" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D35" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>-100</v>
@@ -6116,19 +6116,19 @@
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B36" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D36" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>-100</v>
@@ -6274,19 +6274,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D37" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>-100</v>
@@ -6432,19 +6432,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B38" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D38" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>-100</v>
@@ -6590,19 +6590,19 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D39" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>-100</v>
@@ -6748,19 +6748,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B40" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D40" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>-100</v>
@@ -6906,19 +6906,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D41" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>-100</v>
@@ -7064,19 +7064,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B42" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D42" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>-100</v>
@@ -7222,19 +7222,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D43" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>-100</v>
@@ -7380,19 +7380,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B44" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D44" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>-100</v>
@@ -7538,19 +7538,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D45" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>-100</v>
@@ -7696,19 +7696,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B46" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D46" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>-100</v>
@@ -7854,19 +7854,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D47" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>-100</v>
@@ -8012,19 +8012,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B48" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D48" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>-100</v>
@@ -8170,19 +8170,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D49" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>-100</v>
@@ -8328,19 +8328,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B50" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D50" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>-100</v>
@@ -8486,19 +8486,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C51" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D51" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>-100</v>
@@ -8644,19 +8644,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B52" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C52" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D52" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E52" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>-100</v>
@@ -8802,19 +8802,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C53" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D53" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>-100</v>
@@ -8960,19 +8960,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B54" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C54" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D54" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E54" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>-100</v>
@@ -9118,19 +9118,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C55" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D55" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>-100</v>
@@ -9276,19 +9276,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B56" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C56" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D56" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E56" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>-100</v>
@@ -9434,19 +9434,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C57" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D57" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>-100</v>
@@ -9592,19 +9592,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B58" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C58" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D58" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>-100</v>
@@ -9750,10 +9750,10 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>-100</v>
@@ -9762,7 +9762,7 @@
         <v>-100</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>-100</v>
@@ -9908,19 +9908,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C60" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D60" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>-100</v>
@@ -10066,19 +10066,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B61" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C61" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D61" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>-100</v>
@@ -10224,19 +10224,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B62" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C62" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D62" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>-100</v>
@@ -10382,19 +10382,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B63" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C63" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D63" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>-100</v>
@@ -10540,19 +10540,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C64" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D64" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E64" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>-100</v>
@@ -10698,19 +10698,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B65" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C65" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D65" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>-100</v>
@@ -10856,19 +10856,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C66" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D66" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>-100</v>
@@ -11014,19 +11014,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B67" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C67" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D67" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>-100</v>
@@ -11172,19 +11172,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C68" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D68" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>-100</v>
@@ -11330,19 +11330,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B69" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C69" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D69" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>-100</v>
@@ -11488,19 +11488,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B70" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C70" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D70" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>-100</v>
@@ -11646,19 +11646,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C71" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D71" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E71" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F71" s="2" t="n">
         <v>-100</v>
@@ -11804,19 +11804,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B72" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C72" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D72" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E72" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>-100</v>
@@ -11962,19 +11962,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B73" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C73" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D73" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E73" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>-100</v>
@@ -12120,19 +12120,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C74" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D74" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E74" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>-100</v>
@@ -12278,19 +12278,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B75" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C75" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D75" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E75" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>-100</v>
@@ -12436,19 +12436,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C76" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D76" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E76" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>-100</v>
@@ -12594,19 +12594,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B77" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C77" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D77" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E77" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>-100</v>
@@ -12752,19 +12752,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C78" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D78" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E78" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F78" s="2" t="n">
         <v>-100</v>
@@ -12910,19 +12910,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B79" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C79" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D79" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>-100</v>
@@ -13068,19 +13068,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C80" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D80" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>-100</v>
@@ -13226,19 +13226,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B81" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C81" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D81" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E81" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F81" s="2" t="n">
         <v>-100</v>
@@ -13384,19 +13384,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C82" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D82" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="E82" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F82" s="2" t="n">
         <v>-100</v>
@@ -13542,19 +13542,19 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B83" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C83" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D83" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E83" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F83" s="2" t="n">
         <v>-100</v>
@@ -13700,19 +13700,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C84" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D84" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E84" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>-100</v>
@@ -13858,19 +13858,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B85" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C85" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D85" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E85" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F85" s="2" t="n">
         <v>-100</v>
@@ -14016,19 +14016,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C86" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D86" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E86" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F86" s="2" t="n">
         <v>-100</v>
@@ -14174,19 +14174,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B87" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C87" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D87" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E87" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F87" s="2" t="n">
         <v>-100</v>
@@ -14332,19 +14332,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C88" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D88" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E88" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F88" s="2" t="n">
         <v>-100</v>
@@ -14490,19 +14490,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B89" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C89" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D89" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E89" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F89" s="2" t="n">
         <v>-100</v>
@@ -14648,19 +14648,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B90" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C90" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D90" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E90" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F90" s="2" t="n">
         <v>-100</v>
@@ -14806,19 +14806,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B91" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C91" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D91" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E91" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F91" s="2" t="n">
         <v>-100</v>
@@ -14964,19 +14964,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B92" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C92" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D92" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E92" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F92" s="2" t="n">
         <v>-100</v>
@@ -15122,19 +15122,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B93" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C93" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D93" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E93" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F93" s="2" t="n">
         <v>-100</v>
@@ -15280,19 +15280,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B94" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C94" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D94" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E94" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F94" s="2" t="n">
         <v>-100</v>
@@ -15438,19 +15438,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B95" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C95" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D95" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E95" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F95" s="2" t="n">
         <v>-100</v>
@@ -15596,19 +15596,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B96" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C96" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D96" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E96" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F96" s="2" t="n">
         <v>-100</v>
@@ -15754,19 +15754,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B97" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C97" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D97" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E97" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F97" s="2" t="n">
         <v>-100</v>
@@ -15912,19 +15912,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B98" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C98" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D98" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E98" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F98" s="2" t="n">
         <v>-100</v>
@@ -16070,19 +16070,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B99" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C99" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D99" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E99" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F99" s="2" t="n">
         <v>-100</v>
@@ -16228,19 +16228,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B100" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C100" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D100" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E100" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F100" s="2" t="n">
         <v>-100</v>
@@ -16386,19 +16386,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B101" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C101" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D101" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E101" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F101" s="2" t="n">
         <v>-100</v>
@@ -16544,19 +16544,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B102" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C102" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D102" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E102" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F102" s="2" t="n">
         <v>-100</v>
@@ -16702,19 +16702,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B103" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C103" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D103" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E103" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F103" s="2" t="n">
         <v>-100</v>
@@ -16860,22 +16860,22 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B104" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C104" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D104" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E104" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F104" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="G104" s="2" t="n">
         <v>-100</v>
@@ -17018,19 +17018,19 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B105" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C105" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D105" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E105" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F105" s="2" t="n">
         <v>-100</v>
@@ -17176,19 +17176,19 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B106" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C106" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D106" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E106" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F106" s="2" t="n">
         <v>-100</v>
@@ -17334,19 +17334,19 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B107" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C107" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D107" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E107" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F107" s="2" t="n">
         <v>-100</v>
@@ -17492,19 +17492,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B108" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C108" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D108" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E108" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F108" s="2" t="n">
         <v>-100</v>
@@ -17650,19 +17650,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B109" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C109" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D109" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E109" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F109" s="2" t="n">
         <v>-100</v>
@@ -17808,19 +17808,19 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B110" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C110" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D110" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E110" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F110" s="2" t="n">
         <v>-100</v>
@@ -17966,19 +17966,19 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B111" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C111" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D111" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E111" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F111" s="2" t="n">
         <v>-100</v>
@@ -18124,19 +18124,19 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B112" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C112" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D112" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E112" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F112" s="2" t="n">
         <v>-100</v>
@@ -18282,19 +18282,19 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B113" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C113" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D113" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E113" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F113" s="2" t="n">
         <v>-100</v>
@@ -18440,19 +18440,19 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B114" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C114" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D114" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E114" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F114" s="2" t="n">
         <v>-100</v>
@@ -18598,19 +18598,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B115" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C115" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D115" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E115" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F115" s="2" t="n">
         <v>-100</v>
@@ -18756,19 +18756,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B116" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C116" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D116" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E116" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F116" s="2" t="n">
         <v>-100</v>
@@ -18914,19 +18914,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B117" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C117" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D117" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E117" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F117" s="2" t="n">
         <v>-100</v>
@@ -19072,19 +19072,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B118" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C118" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D118" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E118" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F118" s="2" t="n">
         <v>-100</v>
@@ -19230,19 +19230,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B119" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C119" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D119" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E119" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F119" s="2" t="n">
         <v>-100</v>
@@ -19388,19 +19388,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B120" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C120" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D120" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E120" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F120" s="2" t="n">
         <v>-100</v>
@@ -19546,19 +19546,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B121" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C121" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D121" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E121" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F121" s="2" t="n">
         <v>-100</v>
@@ -19704,22 +19704,22 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B122" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C122" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D122" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E122" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F122" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="G122" s="2" t="n">
         <v>-100</v>
@@ -19862,19 +19862,19 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B123" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C123" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D123" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E123" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F123" s="2" t="n">
         <v>-100</v>
@@ -20020,22 +20020,22 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B124" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C124" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D124" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E124" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F124" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="G124" s="2" t="n">
         <v>-100</v>
@@ -20178,22 +20178,22 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B125" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C125" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D125" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E125" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F125" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="G125" s="2" t="n">
         <v>-100</v>
@@ -20336,22 +20336,22 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B126" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C126" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D126" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E126" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F126" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="G126" s="2" t="n">
         <v>-100</v>
@@ -20494,22 +20494,22 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B127" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C127" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D127" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E127" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F127" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="G127" s="2" t="n">
         <v>-100</v>
@@ -20652,19 +20652,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B128" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C128" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D128" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E128" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F128" s="2" t="n">
         <v>-100</v>
@@ -20810,19 +20810,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B129" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C129" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D129" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E129" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F129" s="2" t="n">
         <v>-100</v>
@@ -20968,19 +20968,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B130" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C130" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D130" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E130" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F130" s="2" t="n">
         <v>-100</v>
@@ -21126,19 +21126,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B131" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C131" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D131" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E131" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F131" s="2" t="n">
         <v>-100</v>
@@ -21284,19 +21284,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B132" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C132" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D132" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E132" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F132" s="2" t="n">
         <v>-100</v>
@@ -21442,19 +21442,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B133" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C133" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D133" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E133" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F133" s="2" t="n">
         <v>-100</v>
@@ -21600,19 +21600,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B134" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C134" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D134" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E134" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F134" s="2" t="n">
         <v>-100</v>
@@ -21758,19 +21758,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B135" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C135" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D135" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E135" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F135" s="2" t="n">
         <v>-100</v>
@@ -21911,24 +21911,24 @@
         <v>-100</v>
       </c>
       <c r="AZ135" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B136" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C136" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D136" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E136" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F136" s="2" t="n">
         <v>-100</v>
@@ -22074,19 +22074,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B137" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C137" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D137" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E137" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F137" s="2" t="n">
         <v>-100</v>
@@ -22232,19 +22232,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B138" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C138" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D138" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E138" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F138" s="2" t="n">
         <v>-100</v>
@@ -22385,24 +22385,24 @@
         <v>-100</v>
       </c>
       <c r="AZ138" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B139" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C139" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D139" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E139" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F139" s="2" t="n">
         <v>-100</v>
@@ -22543,24 +22543,24 @@
         <v>-100</v>
       </c>
       <c r="AZ139" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B140" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C140" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D140" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E140" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F140" s="2" t="n">
         <v>-100</v>
@@ -22706,19 +22706,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B141" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C141" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D141" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E141" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F141" s="2" t="n">
         <v>-100</v>
@@ -22864,19 +22864,19 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B142" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C142" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D142" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E142" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F142" s="2" t="n">
         <v>-100</v>
@@ -23022,19 +23022,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B143" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C143" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D143" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E143" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F143" s="2" t="n">
         <v>-100</v>
@@ -23180,19 +23180,19 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B144" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C144" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D144" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E144" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F144" s="2" t="n">
         <v>-100</v>
@@ -23338,19 +23338,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B145" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C145" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D145" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E145" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F145" s="2" t="n">
         <v>-100</v>
@@ -23496,22 +23496,22 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B146" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C146" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D146" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E146" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F146" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="G146" s="2" t="n">
         <v>-100</v>
@@ -23654,19 +23654,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B147" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C147" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D147" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E147" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F147" s="2" t="n">
         <v>-100</v>
@@ -23812,19 +23812,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B148" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C148" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D148" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E148" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F148" s="2" t="n">
         <v>-100</v>
@@ -23970,19 +23970,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B149" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C149" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D149" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E149" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F149" s="2" t="n">
         <v>-100</v>
@@ -24128,19 +24128,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B150" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C150" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D150" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E150" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F150" s="2" t="n">
         <v>-100</v>
@@ -24286,19 +24286,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B151" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C151" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D151" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E151" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F151" s="2" t="n">
         <v>-100</v>
@@ -24444,19 +24444,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B152" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C152" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D152" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E152" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F152" s="2" t="n">
         <v>-100</v>
@@ -24602,19 +24602,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B153" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C153" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D153" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E153" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F153" s="2" t="n">
         <v>-100</v>
@@ -24760,19 +24760,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B154" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C154" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D154" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E154" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F154" s="2" t="n">
         <v>-100</v>
@@ -24918,19 +24918,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B155" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C155" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D155" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E155" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F155" s="2" t="n">
         <v>-100</v>
@@ -25076,19 +25076,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B156" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C156" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D156" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E156" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F156" s="2" t="n">
         <v>-100</v>
@@ -25234,19 +25234,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B157" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C157" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D157" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E157" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F157" s="2" t="n">
         <v>-100</v>
@@ -25392,19 +25392,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B158" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C158" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D158" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E158" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F158" s="2" t="n">
         <v>-100</v>
@@ -25550,19 +25550,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B159" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C159" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D159" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E159" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F159" s="2" t="n">
         <v>-100</v>
@@ -25708,19 +25708,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B160" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C160" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D160" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E160" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F160" s="2" t="n">
         <v>-100</v>
@@ -25866,19 +25866,19 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B161" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C161" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D161" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E161" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F161" s="2" t="n">
         <v>-100</v>
@@ -26024,19 +26024,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B162" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C162" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D162" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E162" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F162" s="2" t="n">
         <v>-100</v>
@@ -26182,19 +26182,19 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B163" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C163" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D163" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E163" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F163" s="2" t="n">
         <v>-100</v>
@@ -26340,19 +26340,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B164" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C164" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D164" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E164" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F164" s="2" t="n">
         <v>-100</v>
@@ -26498,19 +26498,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B165" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C165" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D165" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E165" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F165" s="2" t="n">
         <v>-100</v>
@@ -26656,19 +26656,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B166" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C166" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D166" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E166" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F166" s="2" t="n">
         <v>-100</v>
@@ -26814,19 +26814,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B167" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C167" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D167" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E167" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F167" s="2" t="n">
         <v>-100</v>
@@ -26972,19 +26972,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B168" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C168" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D168" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E168" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F168" s="2" t="n">
         <v>-100</v>
@@ -27130,19 +27130,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B169" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C169" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D169" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E169" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F169" s="2" t="n">
         <v>-100</v>
@@ -27288,19 +27288,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B170" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C170" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D170" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E170" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F170" s="2" t="n">
         <v>-100</v>
@@ -27446,19 +27446,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B171" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C171" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D171" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E171" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F171" s="2" t="n">
         <v>-100</v>
@@ -27604,19 +27604,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B172" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C172" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D172" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E172" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F172" s="2" t="n">
         <v>-100</v>
@@ -27762,19 +27762,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B173" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C173" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D173" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E173" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F173" s="2" t="n">
         <v>-100</v>
@@ -27920,19 +27920,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B174" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C174" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D174" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E174" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F174" s="2" t="n">
         <v>-100</v>
@@ -28078,19 +28078,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B175" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C175" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D175" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E175" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F175" s="2" t="n">
         <v>-100</v>
@@ -28236,19 +28236,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B176" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C176" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D176" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E176" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F176" s="2" t="n">
         <v>-100</v>
@@ -28394,19 +28394,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B177" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C177" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D177" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E177" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F177" s="2" t="n">
         <v>-100</v>
@@ -28552,19 +28552,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B178" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C178" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D178" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E178" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F178" s="2" t="n">
         <v>-100</v>
@@ -28710,19 +28710,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B179" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C179" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D179" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E179" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F179" s="2" t="n">
         <v>-100</v>
@@ -28868,19 +28868,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B180" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C180" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D180" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E180" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F180" s="2" t="n">
         <v>-100</v>
@@ -29026,19 +29026,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B181" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C181" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D181" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E181" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F181" s="2" t="n">
         <v>-100</v>
@@ -29184,19 +29184,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B182" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C182" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D182" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E182" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F182" s="2" t="n">
         <v>-100</v>
@@ -29342,19 +29342,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B183" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C183" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D183" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E183" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F183" s="2" t="n">
         <v>-100</v>
@@ -29500,19 +29500,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B184" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C184" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D184" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E184" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F184" s="2" t="n">
         <v>-100</v>
@@ -29605,7 +29605,7 @@
         <v>-100</v>
       </c>
       <c r="AJ184" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="AK184" s="2" t="n">
         <v>-100</v>
@@ -29658,19 +29658,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B185" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C185" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D185" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E185" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F185" s="2" t="n">
         <v>-100</v>
@@ -29816,19 +29816,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B186" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C186" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D186" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E186" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F186" s="2" t="n">
         <v>-100</v>
@@ -29974,19 +29974,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B187" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C187" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D187" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E187" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F187" s="2" t="n">
         <v>-100</v>
@@ -30132,19 +30132,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B188" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C188" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D188" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E188" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F188" s="2" t="n">
         <v>-100</v>
@@ -30290,19 +30290,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B189" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C189" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D189" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E189" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F189" s="2" t="n">
         <v>-100</v>
@@ -30448,19 +30448,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B190" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C190" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D190" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E190" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F190" s="2" t="n">
         <v>-100</v>
@@ -30606,19 +30606,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B191" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C191" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D191" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E191" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F191" s="2" t="n">
         <v>-100</v>
@@ -30764,19 +30764,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B192" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C192" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D192" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E192" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F192" s="2" t="n">
         <v>-100</v>
@@ -30922,19 +30922,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B193" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C193" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D193" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E193" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F193" s="2" t="n">
         <v>-100</v>
@@ -31080,19 +31080,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B194" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C194" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D194" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E194" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F194" s="2" t="n">
         <v>-100</v>
@@ -31238,19 +31238,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B195" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C195" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D195" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E195" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F195" s="2" t="n">
         <v>-100</v>
@@ -31396,19 +31396,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B196" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C196" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D196" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E196" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F196" s="2" t="n">
         <v>-100</v>
@@ -31554,19 +31554,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B197" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C197" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D197" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E197" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F197" s="2" t="n">
         <v>-100</v>
@@ -31712,19 +31712,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B198" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C198" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D198" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E198" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F198" s="2" t="n">
         <v>-100</v>
@@ -31870,19 +31870,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B199" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C199" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D199" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E199" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F199" s="2" t="n">
         <v>-100</v>
@@ -32028,19 +32028,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B200" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C200" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D200" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E200" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F200" s="2" t="n">
         <v>-100</v>
@@ -32186,19 +32186,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B201" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C201" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D201" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E201" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F201" s="2" t="n">
         <v>-100</v>
@@ -32344,19 +32344,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B202" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C202" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D202" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E202" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F202" s="2" t="n">
         <v>-100</v>
@@ -32502,19 +32502,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B203" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C203" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D203" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E203" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F203" s="2" t="n">
         <v>-100</v>
@@ -32660,19 +32660,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B204" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C204" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D204" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E204" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F204" s="2" t="n">
         <v>-100</v>
@@ -32818,19 +32818,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B205" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C205" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D205" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E205" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F205" s="2" t="n">
         <v>-100</v>
@@ -32976,19 +32976,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B206" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C206" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D206" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E206" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F206" s="2" t="n">
         <v>-100</v>
@@ -33134,19 +33134,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B207" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C207" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D207" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E207" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F207" s="2" t="n">
         <v>-100</v>
@@ -33292,19 +33292,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B208" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C208" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D208" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E208" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F208" s="2" t="n">
         <v>-100</v>
@@ -33450,19 +33450,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B209" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C209" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D209" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E209" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F209" s="2" t="n">
         <v>-100</v>
@@ -33608,19 +33608,19 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B210" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C210" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D210" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E210" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F210" s="2" t="n">
         <v>-100</v>
@@ -33766,19 +33766,19 @@
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B211" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C211" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D211" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E211" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F211" s="2" t="n">
         <v>-100</v>
@@ -33924,19 +33924,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B212" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C212" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D212" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E212" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F212" s="2" t="n">
         <v>-100</v>
@@ -34082,19 +34082,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B213" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C213" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D213" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E213" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F213" s="2" t="n">
         <v>-100</v>
@@ -34240,19 +34240,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B214" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C214" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D214" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E214" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F214" s="2" t="n">
         <v>-100</v>
@@ -34398,19 +34398,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B215" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C215" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D215" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E215" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F215" s="2" t="n">
         <v>-100</v>
@@ -34556,19 +34556,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B216" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C216" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D216" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E216" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F216" s="2" t="n">
         <v>-100</v>
@@ -34714,19 +34714,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B217" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C217" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D217" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E217" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F217" s="2" t="n">
         <v>-100</v>
@@ -34872,19 +34872,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B218" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C218" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D218" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E218" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F218" s="2" t="n">
         <v>-100</v>
@@ -35030,19 +35030,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B219" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C219" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D219" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E219" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F219" s="2" t="n">
         <v>-100</v>
@@ -35188,19 +35188,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B220" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C220" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D220" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E220" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F220" s="2" t="n">
         <v>-100</v>
@@ -35346,19 +35346,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B221" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C221" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D221" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E221" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F221" s="2" t="n">
         <v>-100</v>
@@ -35504,19 +35504,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B222" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C222" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D222" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E222" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F222" s="2" t="n">
         <v>-100</v>
@@ -35662,19 +35662,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B223" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C223" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D223" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E223" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F223" s="2" t="n">
         <v>-100</v>
@@ -35820,19 +35820,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B224" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C224" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D224" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E224" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F224" s="2" t="n">
         <v>-100</v>
@@ -35978,19 +35978,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B225" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C225" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D225" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E225" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F225" s="2" t="n">
         <v>-100</v>
@@ -36136,19 +36136,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B226" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="C226" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D226" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E226" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F226" s="2" t="n">
         <v>-100</v>
@@ -36294,19 +36294,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B227" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C227" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D227" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E227" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F227" s="2" t="n">
         <v>-100</v>
@@ -36452,19 +36452,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B228" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C228" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D228" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E228" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F228" s="2" t="n">
         <v>-100</v>
@@ -36610,19 +36610,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B229" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C229" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D229" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E229" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F229" s="2" t="n">
         <v>-100</v>
@@ -36768,19 +36768,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B230" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C230" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D230" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E230" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F230" s="2" t="n">
         <v>-100</v>
@@ -36926,19 +36926,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B231" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C231" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D231" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E231" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F231" s="2" t="n">
         <v>-100</v>
@@ -37084,19 +37084,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B232" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C232" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D232" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E232" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F232" s="2" t="n">
         <v>-100</v>
@@ -37242,19 +37242,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B233" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C233" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D233" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E233" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F233" s="2" t="n">
         <v>-100</v>
@@ -37400,19 +37400,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="B234" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="C234" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="D234" s="2" t="n">
         <v>-100</v>
       </c>
       <c r="E234" s="2" t="n">
-        <v>100</v>
+        <v>1e-08</v>
       </c>
       <c r="F234" s="2" t="n">
         <v>-100</v>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="7025962719958434977" xfId="1" hidden="0"/>
-    <cellStyle name="590504459222155676" xfId="2" hidden="0"/>
+    <cellStyle name="-8590686463457957750" xfId="1" hidden="0"/>
+    <cellStyle name="7249946969813570923" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2652,7 +2652,7 @@
         <v>-100</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1e-08</v>
+        <v>-100</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>-100</v>
@@ -2810,7 +2810,7 @@
         <v>-100</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1e-08</v>
+        <v>-100</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>-100</v>
@@ -2968,7 +2968,7 @@
         <v>-100</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1e-08</v>
+        <v>-100</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>-100</v>
@@ -3126,7 +3126,7 @@
         <v>-100</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1e-08</v>
+        <v>-100</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>-100</v>
@@ -12922,7 +12922,7 @@
         <v>-100</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>1e-08</v>
+        <v>-100</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>-100</v>
@@ -13080,7 +13080,7 @@
         <v>-100</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>1e-08</v>
+        <v>-100</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>-100</v>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="-8590686463457957750" xfId="1" hidden="0"/>
-    <cellStyle name="7249946969813570923" xfId="2" hidden="0"/>
+    <cellStyle name="4084014012333447815" xfId="1" hidden="0"/>
+    <cellStyle name="-6513748755014733610" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2652,7 +2652,7 @@
         <v>-100</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-100</v>
+        <v>1e-08</v>
       </c>
       <c r="F14" s="2" t="n">
         <v>-100</v>
@@ -2810,7 +2810,7 @@
         <v>-100</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-100</v>
+        <v>1e-08</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>-100</v>
@@ -2968,7 +2968,7 @@
         <v>-100</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-100</v>
+        <v>1e-08</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>-100</v>
@@ -3126,7 +3126,7 @@
         <v>-100</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-100</v>
+        <v>1e-08</v>
       </c>
       <c r="F17" s="2" t="n">
         <v>-100</v>
@@ -3323,7 +3323,7 @@
         <v>-100</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>-100</v>
+        <v>200</v>
       </c>
       <c r="S18" s="2" t="n">
         <v>-100</v>
@@ -12255,7 +12255,7 @@
         <v>-100</v>
       </c>
       <c r="AT74" s="2" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AU74" s="2" t="n">
         <v>-100</v>
@@ -12922,7 +12922,7 @@
         <v>-100</v>
       </c>
       <c r="E79" s="2" t="n">
-        <v>-100</v>
+        <v>1e-08</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>-100</v>
@@ -13080,7 +13080,7 @@
         <v>-100</v>
       </c>
       <c r="E80" s="2" t="n">
-        <v>-100</v>
+        <v>1e-08</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>-100</v>
@@ -29855,13 +29855,13 @@
         <v>-100</v>
       </c>
       <c r="N186" s="2" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="O186" s="2" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="P186" s="2" t="n">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q186" s="2" t="n">
         <v>-100</v>

--- a/AI Internal-Outputs/output.xlsx
+++ b/AI Internal-Outputs/output.xlsx
@@ -108,8 +108,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="4084014012333447815" xfId="1" hidden="0"/>
-    <cellStyle name="-6513748755014733610" xfId="2" hidden="0"/>
+    <cellStyle name="-9112800623234941282" xfId="1" hidden="0"/>
+    <cellStyle name="-6692405765157084525" xfId="2" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
